--- a/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.69827695104543</v>
+        <v>10.69827695104542</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.172049545982834</v>
+        <v>5.172049545982887</v>
       </c>
       <c r="E2">
-        <v>32.54473903840665</v>
+        <v>32.54473903840671</v>
       </c>
       <c r="F2">
-        <v>47.02071745335345</v>
+        <v>47.02071745335348</v>
       </c>
       <c r="G2">
-        <v>37.27995997347715</v>
+        <v>37.27995997347718</v>
       </c>
       <c r="H2">
-        <v>16.88874623796767</v>
+        <v>16.88874623796773</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>59.86184892310254</v>
+        <v>59.8618489231026</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.00730050888734</v>
+        <v>10.00730050888733</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.649079044961798</v>
+        <v>4.649079044961714</v>
       </c>
       <c r="E3">
-        <v>29.80039498646617</v>
+        <v>29.80039498646613</v>
       </c>
       <c r="F3">
-        <v>42.94102552453679</v>
+        <v>42.94102552453663</v>
       </c>
       <c r="G3">
-        <v>33.98897601417388</v>
+        <v>33.98897601417371</v>
       </c>
       <c r="H3">
-        <v>16.44926047702517</v>
+        <v>16.44926047702516</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>55.50532234817985</v>
+        <v>55.50532234817964</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.561221073305285</v>
+        <v>9.561221073305347</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.331161393254447</v>
+        <v>4.331161393254481</v>
       </c>
       <c r="E4">
-        <v>28.09317351381355</v>
+        <v>28.09317351381361</v>
       </c>
       <c r="F4">
-        <v>40.42070846001076</v>
+        <v>40.42070846001091</v>
       </c>
       <c r="G4">
-        <v>31.95555337638291</v>
+        <v>31.955553376383</v>
       </c>
       <c r="H4">
-        <v>16.19668706133013</v>
+        <v>16.19668706133</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>52.72754805501966</v>
+        <v>52.72754805501971</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.373891959458483</v>
+        <v>9.37389195945841</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.201781569138697</v>
+        <v>4.201781569138632</v>
       </c>
       <c r="E5">
-        <v>27.3892988923548</v>
+        <v>27.38929889235485</v>
       </c>
       <c r="F5">
-        <v>39.38672982228481</v>
+        <v>39.38672982228479</v>
       </c>
       <c r="G5">
-        <v>31.12109829145439</v>
+        <v>31.12109829145433</v>
       </c>
       <c r="H5">
-        <v>16.09792734788851</v>
+        <v>16.09792734788865</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>51.56774653046231</v>
+        <v>51.56774653046234</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.342449619499279</v>
+        <v>9.342449619499185</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.180292768685881</v>
+        <v>4.180292768685842</v>
       </c>
       <c r="E6">
-        <v>27.27186251914655</v>
+        <v>27.27186251914661</v>
       </c>
       <c r="F6">
-        <v>39.21454552983449</v>
+        <v>39.21454552983465</v>
       </c>
       <c r="G6">
-        <v>30.98212193869935</v>
+        <v>30.98212193869948</v>
       </c>
       <c r="H6">
-        <v>16.08177534295779</v>
+        <v>16.08177534295777</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>51.37343092714642</v>
+        <v>51.37343092714639</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -608,25 +608,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.329416560504172</v>
+        <v>4.329416560504195</v>
       </c>
       <c r="E7">
-        <v>28.08371689984129</v>
+        <v>28.08371689984127</v>
       </c>
       <c r="F7">
-        <v>40.40679538177132</v>
+        <v>40.40679538177117</v>
       </c>
       <c r="G7">
-        <v>31.94432616829588</v>
+        <v>31.94432616829573</v>
       </c>
       <c r="H7">
-        <v>16.19533849839939</v>
+        <v>16.1953384983994</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>52.71202159131014</v>
+        <v>52.71202159131003</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.4645118984431</v>
+        <v>10.46451189844314</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.990643612141166</v>
+        <v>4.9906436121413</v>
       </c>
       <c r="E8">
-        <v>31.60133461765166</v>
+        <v>31.60133461765155</v>
       </c>
       <c r="F8">
-        <v>45.61510753619172</v>
+        <v>45.6151075361916</v>
       </c>
       <c r="G8">
-        <v>36.14607661433166</v>
+        <v>36.1460766143316</v>
       </c>
       <c r="H8">
-        <v>16.73350908755823</v>
+        <v>16.73350908755818</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>58.37973617144032</v>
+        <v>58.37973617144026</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.07182941390209</v>
+        <v>12.07182941390206</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.35116017385193</v>
+        <v>6.351160173851772</v>
       </c>
       <c r="E9">
-        <v>38.48492400798651</v>
+        <v>38.4849240079865</v>
       </c>
       <c r="F9">
-        <v>55.90430575021165</v>
+        <v>55.90430575021161</v>
       </c>
       <c r="G9">
-        <v>44.45072150985228</v>
+        <v>44.4507215098522</v>
       </c>
       <c r="H9">
         <v>17.93640725613047</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>68.79803951833021</v>
+        <v>68.79803951833013</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -722,25 +722,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.471990667658989</v>
+        <v>7.471990667659092</v>
       </c>
       <c r="E10">
-        <v>43.88642328278531</v>
+        <v>43.88642328278539</v>
       </c>
       <c r="F10">
-        <v>63.94143829681698</v>
+        <v>63.94143829681709</v>
       </c>
       <c r="G10">
-        <v>50.95148934660823</v>
+        <v>50.95148934660833</v>
       </c>
       <c r="H10">
-        <v>18.93157511456121</v>
+        <v>18.93157511456119</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>76.28064223606368</v>
+        <v>76.28064223606376</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.63534302577279</v>
+        <v>13.63534302577282</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.042980869300656</v>
+        <v>8.042980869300722</v>
       </c>
       <c r="E11">
-        <v>46.57216021119358</v>
+        <v>46.57216021119372</v>
       </c>
       <c r="F11">
-        <v>67.88423868858608</v>
+        <v>67.88423868858619</v>
       </c>
       <c r="G11">
-        <v>54.14731939945096</v>
+        <v>54.14731939945104</v>
       </c>
       <c r="H11">
-        <v>19.41683576220099</v>
+        <v>19.41683576220098</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>79.75227775700567</v>
+        <v>79.75227775700573</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.81394569634576</v>
+        <v>13.81394569634571</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.273586897267064</v>
+        <v>8.273586897266958</v>
       </c>
       <c r="E12">
-        <v>47.64748845045489</v>
+        <v>47.64748845045492</v>
       </c>
       <c r="F12">
-        <v>69.44768468541712</v>
+        <v>69.44768468541707</v>
       </c>
       <c r="G12">
-        <v>55.41602837513872</v>
+        <v>55.4160283751387</v>
       </c>
       <c r="H12">
-        <v>19.60649155221907</v>
+        <v>19.60649155221905</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>81.09332879047221</v>
+        <v>81.09332879047216</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.77556045899137</v>
+        <v>13.77556045899138</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.223146493338996</v>
+        <v>8.223146493338927</v>
       </c>
       <c r="E13">
-        <v>47.41267862283522</v>
+        <v>47.41267862283517</v>
       </c>
       <c r="F13">
-        <v>69.10713602427379</v>
+        <v>69.10713602427353</v>
       </c>
       <c r="G13">
-        <v>55.13960400523275</v>
+        <v>55.13960400523253</v>
       </c>
       <c r="H13">
-        <v>19.56535584629223</v>
+        <v>19.56535584629211</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>80.80293294165914</v>
+        <v>80.80293294165887</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.65007388459235</v>
+        <v>13.65007388459239</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.061617781803916</v>
+        <v>8.0616177818039</v>
       </c>
       <c r="E14">
-        <v>46.65924349938177</v>
+        <v>46.65924349938166</v>
       </c>
       <c r="F14">
-        <v>68.01121049520137</v>
+        <v>68.01121049520118</v>
       </c>
       <c r="G14">
-        <v>54.25032231835163</v>
+        <v>54.25032231835146</v>
       </c>
       <c r="H14">
-        <v>19.43231102811893</v>
+        <v>19.432311028119</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>79.86193833426414</v>
+        <v>79.86193833426411</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.964784306393866</v>
+        <v>7.96478430639381</v>
       </c>
       <c r="E15">
-        <v>46.20641322579718</v>
+        <v>46.20641322579721</v>
       </c>
       <c r="F15">
-        <v>67.3503065169309</v>
+        <v>67.35030651693086</v>
       </c>
       <c r="G15">
-        <v>53.71424064582562</v>
+        <v>53.71424064582556</v>
       </c>
       <c r="H15">
-        <v>19.35163372114676</v>
+        <v>19.35163372114679</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>79.28968719831752</v>
+        <v>79.28968719831754</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.12685092018744</v>
+        <v>13.12685092018742</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.436302326346496</v>
+        <v>7.436302326346402</v>
       </c>
       <c r="E16">
-        <v>43.71729400194099</v>
+        <v>43.71729400194103</v>
       </c>
       <c r="F16">
-        <v>63.6916137787147</v>
+        <v>63.69161377871476</v>
       </c>
       <c r="G16">
-        <v>50.74916000569689</v>
+        <v>50.74916000569692</v>
       </c>
       <c r="H16">
-        <v>18.90060647939595</v>
+        <v>18.9006064793959</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>76.05631384675171</v>
+        <v>76.05631384675169</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.84901031353352</v>
+        <v>12.84901031353349</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.130707155274616</v>
+        <v>7.130707155274566</v>
       </c>
       <c r="E17">
-        <v>42.26210138266374</v>
+        <v>42.26210138266369</v>
       </c>
       <c r="F17">
-        <v>61.53604404411431</v>
+        <v>61.53604404411439</v>
       </c>
       <c r="G17">
-        <v>49.00414841711713</v>
+        <v>49.00414841711715</v>
       </c>
       <c r="H17">
-        <v>18.63292999235865</v>
+        <v>18.63292999235859</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>74.0989557105744</v>
+        <v>74.09895571057439</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.68754379207164</v>
+        <v>12.68754379207162</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.960228065718662</v>
+        <v>6.960228065718615</v>
       </c>
       <c r="E18">
-        <v>41.44451543926327</v>
+        <v>41.44451543926334</v>
       </c>
       <c r="F18">
         <v>60.32079795302078</v>
       </c>
       <c r="G18">
-        <v>48.0209289396584</v>
+        <v>48.02092893965838</v>
       </c>
       <c r="H18">
-        <v>18.48193556486721</v>
+        <v>18.4819355648672</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>72.97814164477072</v>
+        <v>72.97814164477069</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.63257865199533</v>
+        <v>12.63257865199536</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.903298260304405</v>
+        <v>6.903298260304394</v>
       </c>
       <c r="E19">
-        <v>41.17050357862591</v>
+        <v>41.17050357862586</v>
       </c>
       <c r="F19">
-        <v>59.91294274901582</v>
+        <v>59.91294274901542</v>
       </c>
       <c r="G19">
-        <v>47.6910319185906</v>
+        <v>47.69103191859031</v>
       </c>
       <c r="H19">
-        <v>18.43129364802198</v>
+        <v>18.43129364802197</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>72.59916141887661</v>
+        <v>72.59916141887638</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.87875617540782</v>
+        <v>12.87875617540784</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.162661256524213</v>
+        <v>7.162661256524337</v>
       </c>
       <c r="E20">
-        <v>42.41486942216178</v>
+        <v>42.41486942216169</v>
       </c>
       <c r="F20">
-        <v>61.76280988898119</v>
+        <v>61.76280988898093</v>
       </c>
       <c r="G20">
-        <v>49.18766185866124</v>
+        <v>49.18766185866111</v>
       </c>
       <c r="H20">
-        <v>18.66111086974131</v>
+        <v>18.66111086974134</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>74.3067135422464</v>
+        <v>74.3067135422463</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.68698245227707</v>
+        <v>13.68698245227712</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.108607008909589</v>
+        <v>8.108607008909615</v>
       </c>
       <c r="E21">
-        <v>46.87866247621547</v>
+        <v>46.87866247621545</v>
       </c>
       <c r="F21">
-        <v>68.33086161623977</v>
+        <v>68.33086161623987</v>
       </c>
       <c r="G21">
-        <v>54.50965692230763</v>
+        <v>54.50965692230771</v>
       </c>
       <c r="H21">
-        <v>19.47121604809788</v>
+        <v>19.47121604809782</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>80.13742074109889</v>
+        <v>80.13742074109896</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.20384078259547</v>
+        <v>14.20384078259549</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.817279660464942</v>
+        <v>8.817279660465061</v>
       </c>
       <c r="E22">
-        <v>50.16679322951029</v>
+        <v>50.16679322951045</v>
       </c>
       <c r="F22">
-        <v>73.06769898877593</v>
+        <v>73.06769898877621</v>
       </c>
       <c r="G22">
-        <v>58.35715370824993</v>
+        <v>58.35715370825017</v>
       </c>
       <c r="H22">
-        <v>20.03629555533693</v>
+        <v>20.03629555533691</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>84.12155840766913</v>
+        <v>84.12155840766928</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.9287890534957</v>
+        <v>13.92878905349572</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.427573336223675</v>
+        <v>8.427573336223688</v>
       </c>
       <c r="E23">
-        <v>48.36306684884673</v>
+        <v>48.36306684884687</v>
       </c>
       <c r="F23">
-        <v>70.48238905271241</v>
+        <v>70.48238905271266</v>
       </c>
       <c r="G23">
-        <v>56.25616560689771</v>
+        <v>56.25616560689792</v>
       </c>
       <c r="H23">
-        <v>19.7308067710324</v>
+        <v>19.73080677103233</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>81.96981878069526</v>
+        <v>81.96981878069539</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.86531349672152</v>
+        <v>12.86531349672148</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.148198929154666</v>
+        <v>7.148198929154795</v>
       </c>
       <c r="E24">
-        <v>42.34574533468302</v>
+        <v>42.3457453346831</v>
       </c>
       <c r="F24">
-        <v>61.66021609215767</v>
+        <v>61.66021609215794</v>
       </c>
       <c r="G24">
-        <v>49.10463464332136</v>
+        <v>49.10463464332158</v>
       </c>
       <c r="H24">
-        <v>18.64836135365915</v>
+        <v>18.64836135365908</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>74.21277327978743</v>
+        <v>74.21277327978751</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.65437972848423</v>
+        <v>11.65437972848425</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.96970732651764</v>
+        <v>5.969707326517678</v>
       </c>
       <c r="E25">
-        <v>36.59654286136757</v>
+        <v>36.59654286136772</v>
       </c>
       <c r="F25">
-        <v>53.07855699195273</v>
+        <v>53.07855699195283</v>
       </c>
       <c r="G25">
-        <v>42.16857478520227</v>
+        <v>42.16857478520239</v>
       </c>
       <c r="H25">
-        <v>17.59343171751491</v>
+        <v>17.59343171751484</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>66.03382673614425</v>
+        <v>66.03382673614431</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.69827695104542</v>
+        <v>10.69827695104543</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.172049545982887</v>
+        <v>5.172049545982834</v>
       </c>
       <c r="E2">
-        <v>32.54473903840671</v>
+        <v>32.54473903840665</v>
       </c>
       <c r="F2">
-        <v>47.02071745335348</v>
+        <v>47.02071745335345</v>
       </c>
       <c r="G2">
-        <v>37.27995997347718</v>
+        <v>37.27995997347715</v>
       </c>
       <c r="H2">
-        <v>16.88874623796773</v>
+        <v>16.88874623796767</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>59.8618489231026</v>
+        <v>59.86184892310254</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.00730050888733</v>
+        <v>10.00730050888734</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.649079044961714</v>
+        <v>4.649079044961798</v>
       </c>
       <c r="E3">
-        <v>29.80039498646613</v>
+        <v>29.80039498646617</v>
       </c>
       <c r="F3">
-        <v>42.94102552453663</v>
+        <v>42.94102552453679</v>
       </c>
       <c r="G3">
-        <v>33.98897601417371</v>
+        <v>33.98897601417388</v>
       </c>
       <c r="H3">
-        <v>16.44926047702516</v>
+        <v>16.44926047702517</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>55.50532234817964</v>
+        <v>55.50532234817985</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.561221073305347</v>
+        <v>9.561221073305285</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.331161393254481</v>
+        <v>4.331161393254447</v>
       </c>
       <c r="E4">
-        <v>28.09317351381361</v>
+        <v>28.09317351381355</v>
       </c>
       <c r="F4">
-        <v>40.42070846001091</v>
+        <v>40.42070846001076</v>
       </c>
       <c r="G4">
-        <v>31.955553376383</v>
+        <v>31.95555337638291</v>
       </c>
       <c r="H4">
-        <v>16.19668706133</v>
+        <v>16.19668706133013</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>52.72754805501971</v>
+        <v>52.72754805501966</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.37389195945841</v>
+        <v>9.373891959458483</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.201781569138632</v>
+        <v>4.201781569138697</v>
       </c>
       <c r="E5">
-        <v>27.38929889235485</v>
+        <v>27.3892988923548</v>
       </c>
       <c r="F5">
-        <v>39.38672982228479</v>
+        <v>39.38672982228481</v>
       </c>
       <c r="G5">
-        <v>31.12109829145433</v>
+        <v>31.12109829145439</v>
       </c>
       <c r="H5">
-        <v>16.09792734788865</v>
+        <v>16.09792734788851</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>51.56774653046234</v>
+        <v>51.56774653046231</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.342449619499185</v>
+        <v>9.342449619499279</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.180292768685842</v>
+        <v>4.180292768685881</v>
       </c>
       <c r="E6">
-        <v>27.27186251914661</v>
+        <v>27.27186251914655</v>
       </c>
       <c r="F6">
-        <v>39.21454552983465</v>
+        <v>39.21454552983449</v>
       </c>
       <c r="G6">
-        <v>30.98212193869948</v>
+        <v>30.98212193869935</v>
       </c>
       <c r="H6">
-        <v>16.08177534295777</v>
+        <v>16.08177534295779</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>51.37343092714639</v>
+        <v>51.37343092714642</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -608,25 +608,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.329416560504195</v>
+        <v>4.329416560504172</v>
       </c>
       <c r="E7">
-        <v>28.08371689984127</v>
+        <v>28.08371689984129</v>
       </c>
       <c r="F7">
-        <v>40.40679538177117</v>
+        <v>40.40679538177132</v>
       </c>
       <c r="G7">
-        <v>31.94432616829573</v>
+        <v>31.94432616829588</v>
       </c>
       <c r="H7">
-        <v>16.1953384983994</v>
+        <v>16.19533849839939</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>52.71202159131003</v>
+        <v>52.71202159131014</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.46451189844314</v>
+        <v>10.4645118984431</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.9906436121413</v>
+        <v>4.990643612141166</v>
       </c>
       <c r="E8">
-        <v>31.60133461765155</v>
+        <v>31.60133461765166</v>
       </c>
       <c r="F8">
-        <v>45.6151075361916</v>
+        <v>45.61510753619172</v>
       </c>
       <c r="G8">
-        <v>36.1460766143316</v>
+        <v>36.14607661433166</v>
       </c>
       <c r="H8">
-        <v>16.73350908755818</v>
+        <v>16.73350908755823</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>58.37973617144026</v>
+        <v>58.37973617144032</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.07182941390206</v>
+        <v>12.07182941390209</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.351160173851772</v>
+        <v>6.35116017385193</v>
       </c>
       <c r="E9">
-        <v>38.4849240079865</v>
+        <v>38.48492400798651</v>
       </c>
       <c r="F9">
-        <v>55.90430575021161</v>
+        <v>55.90430575021165</v>
       </c>
       <c r="G9">
-        <v>44.4507215098522</v>
+        <v>44.45072150985228</v>
       </c>
       <c r="H9">
         <v>17.93640725613047</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>68.79803951833013</v>
+        <v>68.79803951833021</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -722,25 +722,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.471990667659092</v>
+        <v>7.471990667658989</v>
       </c>
       <c r="E10">
-        <v>43.88642328278539</v>
+        <v>43.88642328278531</v>
       </c>
       <c r="F10">
-        <v>63.94143829681709</v>
+        <v>63.94143829681698</v>
       </c>
       <c r="G10">
-        <v>50.95148934660833</v>
+        <v>50.95148934660823</v>
       </c>
       <c r="H10">
-        <v>18.93157511456119</v>
+        <v>18.93157511456121</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>76.28064223606376</v>
+        <v>76.28064223606368</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.63534302577282</v>
+        <v>13.63534302577279</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.042980869300722</v>
+        <v>8.042980869300656</v>
       </c>
       <c r="E11">
-        <v>46.57216021119372</v>
+        <v>46.57216021119358</v>
       </c>
       <c r="F11">
-        <v>67.88423868858619</v>
+        <v>67.88423868858608</v>
       </c>
       <c r="G11">
-        <v>54.14731939945104</v>
+        <v>54.14731939945096</v>
       </c>
       <c r="H11">
-        <v>19.41683576220098</v>
+        <v>19.41683576220099</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>79.75227775700573</v>
+        <v>79.75227775700567</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.81394569634571</v>
+        <v>13.81394569634576</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.273586897266958</v>
+        <v>8.273586897267064</v>
       </c>
       <c r="E12">
-        <v>47.64748845045492</v>
+        <v>47.64748845045489</v>
       </c>
       <c r="F12">
-        <v>69.44768468541707</v>
+        <v>69.44768468541712</v>
       </c>
       <c r="G12">
-        <v>55.4160283751387</v>
+        <v>55.41602837513872</v>
       </c>
       <c r="H12">
-        <v>19.60649155221905</v>
+        <v>19.60649155221907</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>81.09332879047216</v>
+        <v>81.09332879047221</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.77556045899138</v>
+        <v>13.77556045899137</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.223146493338927</v>
+        <v>8.223146493338996</v>
       </c>
       <c r="E13">
-        <v>47.41267862283517</v>
+        <v>47.41267862283522</v>
       </c>
       <c r="F13">
-        <v>69.10713602427353</v>
+        <v>69.10713602427379</v>
       </c>
       <c r="G13">
-        <v>55.13960400523253</v>
+        <v>55.13960400523275</v>
       </c>
       <c r="H13">
-        <v>19.56535584629211</v>
+        <v>19.56535584629223</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>80.80293294165887</v>
+        <v>80.80293294165914</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.65007388459239</v>
+        <v>13.65007388459235</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.0616177818039</v>
+        <v>8.061617781803916</v>
       </c>
       <c r="E14">
-        <v>46.65924349938166</v>
+        <v>46.65924349938177</v>
       </c>
       <c r="F14">
-        <v>68.01121049520118</v>
+        <v>68.01121049520137</v>
       </c>
       <c r="G14">
-        <v>54.25032231835146</v>
+        <v>54.25032231835163</v>
       </c>
       <c r="H14">
-        <v>19.432311028119</v>
+        <v>19.43231102811893</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>79.86193833426411</v>
+        <v>79.86193833426414</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.96478430639381</v>
+        <v>7.964784306393866</v>
       </c>
       <c r="E15">
-        <v>46.20641322579721</v>
+        <v>46.20641322579718</v>
       </c>
       <c r="F15">
-        <v>67.35030651693086</v>
+        <v>67.3503065169309</v>
       </c>
       <c r="G15">
-        <v>53.71424064582556</v>
+        <v>53.71424064582562</v>
       </c>
       <c r="H15">
-        <v>19.35163372114679</v>
+        <v>19.35163372114676</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>79.28968719831754</v>
+        <v>79.28968719831752</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.12685092018742</v>
+        <v>13.12685092018744</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.436302326346402</v>
+        <v>7.436302326346496</v>
       </c>
       <c r="E16">
-        <v>43.71729400194103</v>
+        <v>43.71729400194099</v>
       </c>
       <c r="F16">
-        <v>63.69161377871476</v>
+        <v>63.6916137787147</v>
       </c>
       <c r="G16">
-        <v>50.74916000569692</v>
+        <v>50.74916000569689</v>
       </c>
       <c r="H16">
-        <v>18.9006064793959</v>
+        <v>18.90060647939595</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>76.05631384675169</v>
+        <v>76.05631384675171</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.84901031353349</v>
+        <v>12.84901031353352</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.130707155274566</v>
+        <v>7.130707155274616</v>
       </c>
       <c r="E17">
-        <v>42.26210138266369</v>
+        <v>42.26210138266374</v>
       </c>
       <c r="F17">
-        <v>61.53604404411439</v>
+        <v>61.53604404411431</v>
       </c>
       <c r="G17">
-        <v>49.00414841711715</v>
+        <v>49.00414841711713</v>
       </c>
       <c r="H17">
-        <v>18.63292999235859</v>
+        <v>18.63292999235865</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>74.09895571057439</v>
+        <v>74.0989557105744</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.68754379207162</v>
+        <v>12.68754379207164</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.960228065718615</v>
+        <v>6.960228065718662</v>
       </c>
       <c r="E18">
-        <v>41.44451543926334</v>
+        <v>41.44451543926327</v>
       </c>
       <c r="F18">
         <v>60.32079795302078</v>
       </c>
       <c r="G18">
-        <v>48.02092893965838</v>
+        <v>48.0209289396584</v>
       </c>
       <c r="H18">
-        <v>18.4819355648672</v>
+        <v>18.48193556486721</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>72.97814164477069</v>
+        <v>72.97814164477072</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.63257865199536</v>
+        <v>12.63257865199533</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.903298260304394</v>
+        <v>6.903298260304405</v>
       </c>
       <c r="E19">
-        <v>41.17050357862586</v>
+        <v>41.17050357862591</v>
       </c>
       <c r="F19">
-        <v>59.91294274901542</v>
+        <v>59.91294274901582</v>
       </c>
       <c r="G19">
-        <v>47.69103191859031</v>
+        <v>47.6910319185906</v>
       </c>
       <c r="H19">
-        <v>18.43129364802197</v>
+        <v>18.43129364802198</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>72.59916141887638</v>
+        <v>72.59916141887661</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.87875617540784</v>
+        <v>12.87875617540782</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.162661256524337</v>
+        <v>7.162661256524213</v>
       </c>
       <c r="E20">
-        <v>42.41486942216169</v>
+        <v>42.41486942216178</v>
       </c>
       <c r="F20">
-        <v>61.76280988898093</v>
+        <v>61.76280988898119</v>
       </c>
       <c r="G20">
-        <v>49.18766185866111</v>
+        <v>49.18766185866124</v>
       </c>
       <c r="H20">
-        <v>18.66111086974134</v>
+        <v>18.66111086974131</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>74.3067135422463</v>
+        <v>74.3067135422464</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.68698245227712</v>
+        <v>13.68698245227707</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.108607008909615</v>
+        <v>8.108607008909589</v>
       </c>
       <c r="E21">
-        <v>46.87866247621545</v>
+        <v>46.87866247621547</v>
       </c>
       <c r="F21">
-        <v>68.33086161623987</v>
+        <v>68.33086161623977</v>
       </c>
       <c r="G21">
-        <v>54.50965692230771</v>
+        <v>54.50965692230763</v>
       </c>
       <c r="H21">
-        <v>19.47121604809782</v>
+        <v>19.47121604809788</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>80.13742074109896</v>
+        <v>80.13742074109889</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.20384078259549</v>
+        <v>14.20384078259547</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.817279660465061</v>
+        <v>8.817279660464942</v>
       </c>
       <c r="E22">
-        <v>50.16679322951045</v>
+        <v>50.16679322951029</v>
       </c>
       <c r="F22">
-        <v>73.06769898877621</v>
+        <v>73.06769898877593</v>
       </c>
       <c r="G22">
-        <v>58.35715370825017</v>
+        <v>58.35715370824993</v>
       </c>
       <c r="H22">
-        <v>20.03629555533691</v>
+        <v>20.03629555533693</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>84.12155840766928</v>
+        <v>84.12155840766913</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.92878905349572</v>
+        <v>13.9287890534957</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.427573336223688</v>
+        <v>8.427573336223675</v>
       </c>
       <c r="E23">
-        <v>48.36306684884687</v>
+        <v>48.36306684884673</v>
       </c>
       <c r="F23">
-        <v>70.48238905271266</v>
+        <v>70.48238905271241</v>
       </c>
       <c r="G23">
-        <v>56.25616560689792</v>
+        <v>56.25616560689771</v>
       </c>
       <c r="H23">
-        <v>19.73080677103233</v>
+        <v>19.7308067710324</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>81.96981878069539</v>
+        <v>81.96981878069526</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.86531349672148</v>
+        <v>12.86531349672152</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.148198929154795</v>
+        <v>7.148198929154666</v>
       </c>
       <c r="E24">
-        <v>42.3457453346831</v>
+        <v>42.34574533468302</v>
       </c>
       <c r="F24">
-        <v>61.66021609215794</v>
+        <v>61.66021609215767</v>
       </c>
       <c r="G24">
-        <v>49.10463464332158</v>
+        <v>49.10463464332136</v>
       </c>
       <c r="H24">
-        <v>18.64836135365908</v>
+        <v>18.64836135365915</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>74.21277327978751</v>
+        <v>74.21277327978743</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.65437972848425</v>
+        <v>11.65437972848423</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.969707326517678</v>
+        <v>5.96970732651764</v>
       </c>
       <c r="E25">
-        <v>36.59654286136772</v>
+        <v>36.59654286136757</v>
       </c>
       <c r="F25">
-        <v>53.07855699195283</v>
+        <v>53.07855699195273</v>
       </c>
       <c r="G25">
-        <v>42.16857478520239</v>
+        <v>42.16857478520227</v>
       </c>
       <c r="H25">
-        <v>17.59343171751484</v>
+        <v>17.59343171751491</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>66.03382673614431</v>
+        <v>66.03382673614425</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.69827695104543</v>
+        <v>10.70160780143567</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.172049545982834</v>
+        <v>5.161787421858024</v>
       </c>
       <c r="E2">
-        <v>32.54473903840665</v>
+        <v>32.54033132466071</v>
       </c>
       <c r="F2">
-        <v>47.02071745335345</v>
+        <v>46.97486569424403</v>
       </c>
       <c r="G2">
-        <v>37.27995997347715</v>
+        <v>37.33126942103133</v>
       </c>
       <c r="H2">
-        <v>16.88874623796767</v>
+        <v>36.86218747525735</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.90092913549825</v>
       </c>
       <c r="J2">
-        <v>59.86184892310254</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>59.83927967642632</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.00730050888734</v>
+        <v>10.01041872509308</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.649079044961798</v>
+        <v>4.639922790992866</v>
       </c>
       <c r="E3">
-        <v>29.80039498646617</v>
+        <v>29.79717181532316</v>
       </c>
       <c r="F3">
-        <v>42.94102552453679</v>
+        <v>42.90026284860831</v>
       </c>
       <c r="G3">
-        <v>33.98897601417388</v>
+        <v>34.03668460873769</v>
       </c>
       <c r="H3">
-        <v>16.44926047702517</v>
+        <v>33.64100172802204</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.46008078707846</v>
       </c>
       <c r="J3">
-        <v>55.50532234817985</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>55.48554916697873</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.561221073305285</v>
+        <v>9.564196886274592</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.331161393254447</v>
+        <v>4.322661088100411</v>
       </c>
       <c r="E4">
-        <v>28.09317351381355</v>
+        <v>28.0905545962881</v>
       </c>
       <c r="F4">
-        <v>40.42070846001076</v>
+        <v>40.38291052492202</v>
       </c>
       <c r="G4">
-        <v>31.95555337638291</v>
+        <v>32.00090389191704</v>
       </c>
       <c r="H4">
-        <v>16.19668706133013</v>
+        <v>31.6573415947686</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.20661875804098</v>
       </c>
       <c r="J4">
-        <v>52.72754805501966</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>52.70939297391599</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.373891959458483</v>
+        <v>9.376806864156421</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.201781569138697</v>
+        <v>4.193545382885513</v>
       </c>
       <c r="E5">
-        <v>27.3892988923548</v>
+        <v>27.38690338374879</v>
       </c>
       <c r="F5">
-        <v>39.38672982228481</v>
+        <v>39.35011326802017</v>
       </c>
       <c r="G5">
-        <v>31.12109829145439</v>
+        <v>31.16545597082319</v>
       </c>
       <c r="H5">
-        <v>16.09792734788851</v>
+        <v>30.84505948268234</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.10748534951238</v>
       </c>
       <c r="J5">
-        <v>51.56774653046231</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>51.55023447743309</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.342449619499279</v>
+        <v>9.34535423874031</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.180292768685881</v>
+        <v>4.172100309341647</v>
       </c>
       <c r="E6">
-        <v>27.27186251914655</v>
+        <v>27.269502917844</v>
       </c>
       <c r="F6">
-        <v>39.21454552983449</v>
+        <v>39.17812384553088</v>
       </c>
       <c r="G6">
-        <v>30.98212193869935</v>
+        <v>31.02631295036754</v>
       </c>
       <c r="H6">
-        <v>16.08177534295779</v>
+        <v>30.70988446569811</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.09127063674587</v>
       </c>
       <c r="J6">
-        <v>51.37343092714642</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>51.3560248650702</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.558717217608011</v>
+        <v>9.561692220697902</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.329416560504172</v>
+        <v>4.320919827336457</v>
       </c>
       <c r="E7">
-        <v>28.08371689984129</v>
+        <v>28.08110107888145</v>
       </c>
       <c r="F7">
-        <v>40.40679538177132</v>
+        <v>40.36901347270805</v>
       </c>
       <c r="G7">
-        <v>31.94432616829588</v>
+        <v>31.98966341771832</v>
       </c>
       <c r="H7">
-        <v>16.19533849839939</v>
+        <v>31.64640552180663</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.20526520025104</v>
       </c>
       <c r="J7">
-        <v>52.71202159131014</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>52.69387523903973</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.4645118984431</v>
+        <v>10.46777196718133</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.990643612141166</v>
+        <v>4.980769421307988</v>
       </c>
       <c r="E8">
-        <v>31.60133461765166</v>
+        <v>31.59736671244417</v>
       </c>
       <c r="F8">
-        <v>45.61510753619172</v>
+        <v>45.57105322385169</v>
       </c>
       <c r="G8">
-        <v>36.14607661433166</v>
+        <v>36.19617872175424</v>
       </c>
       <c r="H8">
-        <v>16.73350908755823</v>
+        <v>35.75102475593685</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.7452338611696</v>
       </c>
       <c r="J8">
-        <v>58.37973617144032</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>58.3581574149607</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.07182941390209</v>
+        <v>12.0755463573409</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.35116017385193</v>
+        <v>6.338219221377532</v>
       </c>
       <c r="E9">
-        <v>38.48492400798651</v>
+        <v>38.47672714344633</v>
       </c>
       <c r="F9">
-        <v>55.90430575021165</v>
+        <v>55.84573512034314</v>
       </c>
       <c r="G9">
-        <v>44.45072150985228</v>
+        <v>44.50860777339252</v>
       </c>
       <c r="H9">
-        <v>17.93640725613047</v>
+        <v>43.91399426348043</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.9511752636709</v>
       </c>
       <c r="J9">
-        <v>68.79803951833021</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>68.7683659564581</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.15833814568786</v>
+        <v>13.16230572613005</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.471990667658989</v>
+        <v>7.456103000561246</v>
       </c>
       <c r="E10">
-        <v>43.88642328278531</v>
+        <v>43.8724853799945</v>
       </c>
       <c r="F10">
-        <v>63.94143829681698</v>
+        <v>63.86841176762049</v>
       </c>
       <c r="G10">
-        <v>50.95148934660823</v>
+        <v>51.01298057945829</v>
       </c>
       <c r="H10">
-        <v>18.93157511456121</v>
+        <v>50.33265622417134</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>18.94816808457413</v>
       </c>
       <c r="J10">
-        <v>76.28064223606368</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>76.24271766357118</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.63534302577279</v>
+        <v>13.63939337982626</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.042980869300656</v>
+        <v>8.025345921698989</v>
       </c>
       <c r="E11">
-        <v>46.57216021119358</v>
+        <v>46.55404878515294</v>
       </c>
       <c r="F11">
-        <v>67.88423868858608</v>
+        <v>67.80249349488439</v>
       </c>
       <c r="G11">
-        <v>54.14731939945096</v>
+        <v>54.20926161983603</v>
       </c>
       <c r="H11">
-        <v>19.41683576220099</v>
+        <v>53.49380727641524</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19.4341277346067</v>
       </c>
       <c r="J11">
-        <v>79.75227775700567</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>79.70931159025147</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.81394569634576</v>
+        <v>13.81802032085763</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.273586897267064</v>
+        <v>8.255179981298733</v>
       </c>
       <c r="E12">
-        <v>47.64748845045489</v>
+        <v>47.62735912267452</v>
       </c>
       <c r="F12">
-        <v>69.44768468541712</v>
+        <v>69.36206503574883</v>
       </c>
       <c r="G12">
-        <v>55.41602837513872</v>
+        <v>55.47780868969884</v>
       </c>
       <c r="H12">
-        <v>19.60649155221907</v>
+        <v>54.7494608138902</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>19.62402238538113</v>
       </c>
       <c r="J12">
-        <v>81.09332879047221</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>81.04811087974602</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.77556045899137</v>
+        <v>13.77963024245335</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.223146493338996</v>
+        <v>8.204912184324298</v>
       </c>
       <c r="E13">
-        <v>47.41267862283522</v>
+        <v>47.39300946920086</v>
       </c>
       <c r="F13">
-        <v>69.10713602427379</v>
+        <v>69.022383628426</v>
       </c>
       <c r="G13">
-        <v>55.13960400523275</v>
+        <v>55.20143868650851</v>
       </c>
       <c r="H13">
-        <v>19.56535584629223</v>
+        <v>54.47585252513485</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>19.58283656648264</v>
       </c>
       <c r="J13">
-        <v>80.80293294165914</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>80.75821957568333</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.65007388459235</v>
+        <v>13.65412640153139</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.061617781803916</v>
+        <v>8.043922026822829</v>
       </c>
       <c r="E14">
-        <v>46.65924349938177</v>
+        <v>46.64097690836301</v>
       </c>
       <c r="F14">
-        <v>68.01121049520137</v>
+        <v>67.92916053306386</v>
       </c>
       <c r="G14">
-        <v>54.25032231835163</v>
+        <v>54.3122594821098</v>
       </c>
       <c r="H14">
-        <v>19.43231102811893</v>
+        <v>53.59573724704224</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19.44962323158025</v>
       </c>
       <c r="J14">
-        <v>79.86193833426414</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>79.81879526679447</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.57296337929608</v>
+        <v>13.57700427867157</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.964784306393866</v>
+        <v>7.947401642724605</v>
       </c>
       <c r="E15">
-        <v>46.20641322579718</v>
+        <v>46.18893855890039</v>
       </c>
       <c r="F15">
-        <v>67.3503065169309</v>
+        <v>67.26982493313645</v>
       </c>
       <c r="G15">
-        <v>53.71424064582562</v>
+        <v>53.77618943214348</v>
       </c>
       <c r="H15">
-        <v>19.35163372114676</v>
+        <v>53.06526702694716</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>19.36883903133807</v>
       </c>
       <c r="J15">
-        <v>79.28968719831752</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>79.24745404920864</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.12685092018744</v>
+        <v>13.13081229200704</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.436302326346496</v>
+        <v>7.420517252588586</v>
       </c>
       <c r="E16">
-        <v>43.71729400194099</v>
+        <v>43.70358368229724</v>
       </c>
       <c r="F16">
-        <v>63.6916137787147</v>
+        <v>63.61909644635323</v>
       </c>
       <c r="G16">
-        <v>50.74916000569689</v>
+        <v>50.810587480218</v>
       </c>
       <c r="H16">
-        <v>18.90060647939595</v>
+        <v>50.13262542939441</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>18.91715064820911</v>
       </c>
       <c r="J16">
-        <v>76.05631384675171</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>76.01868243508753</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.84901031353352</v>
+        <v>12.85291367997858</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.130707155274616</v>
+        <v>7.115773682923939</v>
       </c>
       <c r="E17">
-        <v>42.26210138266374</v>
+        <v>42.25020368841663</v>
       </c>
       <c r="F17">
-        <v>61.53604404411431</v>
+        <v>61.46773913538966</v>
       </c>
       <c r="G17">
-        <v>49.00414841711713</v>
+        <v>49.06487905170644</v>
       </c>
       <c r="H17">
-        <v>18.63292999235865</v>
+        <v>48.40803757944389</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>18.64903144837213</v>
       </c>
       <c r="J17">
-        <v>74.0989557105744</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>74.06374317093301</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.68754379207164</v>
+        <v>12.6914110762877</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.960228065718662</v>
+        <v>6.94575056446542</v>
       </c>
       <c r="E18">
-        <v>41.44451543926327</v>
+        <v>41.43353170462787</v>
       </c>
       <c r="F18">
-        <v>60.32079795302078</v>
+        <v>60.25473693217166</v>
       </c>
       <c r="G18">
-        <v>48.0209289396584</v>
+        <v>48.08116091310669</v>
       </c>
       <c r="H18">
-        <v>18.48193556486721</v>
+        <v>47.43684106037988</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>18.49777060911147</v>
       </c>
       <c r="J18">
-        <v>72.97814164477072</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>72.94421259908235</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.63257865199533</v>
+        <v>12.636433298916</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.903298260304405</v>
+        <v>6.88897025727414</v>
       </c>
       <c r="E19">
-        <v>41.17050357862591</v>
+        <v>41.15981085918201</v>
       </c>
       <c r="F19">
-        <v>59.91294274901582</v>
+        <v>59.84761549736205</v>
       </c>
       <c r="G19">
-        <v>47.6910319185906</v>
+        <v>47.75108097619618</v>
       </c>
       <c r="H19">
-        <v>18.43129364802198</v>
+        <v>47.11106853409159</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>18.4470366055261</v>
       </c>
       <c r="J19">
-        <v>72.59916141887661</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>72.56565127316564</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.87875617540782</v>
+        <v>12.88266600992798</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.162661256524213</v>
+        <v>7.147640869966909</v>
       </c>
       <c r="E20">
-        <v>42.41486942216178</v>
+        <v>42.40279302105546</v>
       </c>
       <c r="F20">
-        <v>61.76280988898119</v>
+        <v>61.69407630319662</v>
       </c>
       <c r="G20">
-        <v>49.18766185866124</v>
+        <v>49.24847750423688</v>
       </c>
       <c r="H20">
-        <v>18.66111086974131</v>
+        <v>48.58934992577882</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>18.67726070670786</v>
       </c>
       <c r="J20">
-        <v>74.3067135422464</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>74.2712553897852</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.68698245227707</v>
+        <v>13.69104026671343</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.108607008909589</v>
+        <v>8.090756746310854</v>
       </c>
       <c r="E21">
-        <v>46.87866247621547</v>
+        <v>46.85999868827739</v>
       </c>
       <c r="F21">
-        <v>68.33086161623977</v>
+        <v>68.24803691675882</v>
       </c>
       <c r="G21">
-        <v>54.50965692230763</v>
+        <v>54.57157523467065</v>
       </c>
       <c r="H21">
-        <v>19.47121604809788</v>
+        <v>53.85238108570474</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.48857853654492</v>
       </c>
       <c r="J21">
-        <v>80.13742074109889</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>80.09382780437649</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.20384078259547</v>
+        <v>14.20795008511004</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.817279660464942</v>
+        <v>8.796855502767146</v>
       </c>
       <c r="E22">
-        <v>50.16679322951029</v>
+        <v>50.14091822434806</v>
       </c>
       <c r="F22">
-        <v>73.06769898877593</v>
+        <v>72.97191367523402</v>
       </c>
       <c r="G22">
-        <v>58.35715370824993</v>
+        <v>58.41757853120099</v>
       </c>
       <c r="H22">
-        <v>20.03629555533693</v>
+        <v>57.66137848146259</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.05429033928201</v>
       </c>
       <c r="J22">
-        <v>84.12155840766913</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>84.07040801999304</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.9287890534957</v>
+        <v>13.93287679852778</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.427573336223675</v>
+        <v>8.408625432797134</v>
       </c>
       <c r="E23">
-        <v>48.36306684884673</v>
+        <v>48.34146234227671</v>
       </c>
       <c r="F23">
-        <v>70.48238905271241</v>
+        <v>70.39404814765253</v>
       </c>
       <c r="G23">
-        <v>56.25616560689771</v>
+        <v>56.31771001136146</v>
       </c>
       <c r="H23">
-        <v>19.7308067710324</v>
+        <v>55.58112545108336</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.74848319187166</v>
       </c>
       <c r="J23">
-        <v>81.96981878069526</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>81.92301594891478</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.86531349672152</v>
+        <v>12.86922041539088</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.148198929154666</v>
+        <v>7.133217938245624</v>
       </c>
       <c r="E24">
-        <v>42.34574533468302</v>
+        <v>42.33375011404211</v>
       </c>
       <c r="F24">
-        <v>61.66021609215767</v>
+        <v>61.59167684996672</v>
       </c>
       <c r="G24">
-        <v>49.10463464332136</v>
+        <v>49.16541215172703</v>
       </c>
       <c r="H24">
-        <v>18.64836135365915</v>
+        <v>48.50731693114303</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>18.66448935420884</v>
       </c>
       <c r="J24">
-        <v>74.21277327978743</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>74.17742649346111</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.65437972848423</v>
+        <v>11.65798556689982</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.96970732651764</v>
+        <v>5.957668484744332</v>
       </c>
       <c r="E25">
-        <v>36.59654286136757</v>
+        <v>36.58977191445808</v>
       </c>
       <c r="F25">
-        <v>53.07855699195273</v>
+        <v>53.02432372459506</v>
       </c>
       <c r="G25">
-        <v>42.16857478520227</v>
+        <v>42.22459772469614</v>
       </c>
       <c r="H25">
-        <v>17.59343171751491</v>
+        <v>41.6657434520759</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.60743862191781</v>
       </c>
       <c r="J25">
-        <v>66.03382673614425</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>66.00659430230367</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.70160780143567</v>
+        <v>7.238939625510824</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.161787421858024</v>
+        <v>7.775026960917001</v>
       </c>
       <c r="E2">
-        <v>32.54033132466071</v>
+        <v>6.616100717383605</v>
       </c>
       <c r="F2">
-        <v>46.97486569424403</v>
+        <v>64.10652558104715</v>
       </c>
       <c r="G2">
-        <v>37.33126942103133</v>
+        <v>2.03716434111166</v>
       </c>
       <c r="H2">
-        <v>36.86218747525735</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.90092913549825</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.466721970151402</v>
       </c>
       <c r="K2">
-        <v>59.83927967642632</v>
+        <v>43.24042942238182</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>27.54462658167142</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.01041872509308</v>
+        <v>6.878000238718076</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.639922790992866</v>
+        <v>7.124247099094901</v>
       </c>
       <c r="E3">
-        <v>29.79717181532316</v>
+        <v>6.419141702106436</v>
       </c>
       <c r="F3">
-        <v>42.90026284860831</v>
+        <v>60.3738002862877</v>
       </c>
       <c r="G3">
-        <v>34.03668460873769</v>
+        <v>2.064047341721541</v>
       </c>
       <c r="H3">
-        <v>33.64100172802204</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.46008078707846</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.538424755849834</v>
       </c>
       <c r="K3">
-        <v>55.48554916697873</v>
+        <v>39.8929840014689</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>25.4093674083335</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.564196886274592</v>
+        <v>6.65191594637735</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.322661088100411</v>
+        <v>6.717548157111953</v>
       </c>
       <c r="E4">
-        <v>28.0905545962881</v>
+        <v>6.300835167227183</v>
       </c>
       <c r="F4">
-        <v>40.38291052492202</v>
+        <v>58.13214245940446</v>
       </c>
       <c r="G4">
-        <v>32.00090389191704</v>
+        <v>2.080443307348596</v>
       </c>
       <c r="H4">
-        <v>31.6573415947686</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.20661875804098</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.583887715749285</v>
       </c>
       <c r="K4">
-        <v>52.70939297391599</v>
+        <v>37.77693545445828</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>24.11339822423424</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.376806864156421</v>
+        <v>6.558745688043276</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.193545382885513</v>
+        <v>6.549564105760007</v>
       </c>
       <c r="E5">
-        <v>27.38690338374879</v>
+        <v>6.253097367088141</v>
       </c>
       <c r="F5">
-        <v>39.35011326802017</v>
+        <v>57.22960947741959</v>
       </c>
       <c r="G5">
-        <v>31.16545597082319</v>
+        <v>2.087122718476953</v>
       </c>
       <c r="H5">
-        <v>30.84505948268234</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.10748534951238</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.602779813693547</v>
       </c>
       <c r="K5">
-        <v>51.55023447743309</v>
+        <v>36.89776233138053</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>23.66633326076096</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.34535423874031</v>
+        <v>6.543215054061974</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.172100309341647</v>
+        <v>6.521522614161138</v>
       </c>
       <c r="E6">
-        <v>27.269502917844</v>
+        <v>6.245194391150561</v>
       </c>
       <c r="F6">
-        <v>39.17812384553088</v>
+        <v>57.08036974956551</v>
       </c>
       <c r="G6">
-        <v>31.02631295036754</v>
+        <v>2.088232365971457</v>
       </c>
       <c r="H6">
-        <v>30.70988446569811</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.09127063674587</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.605939048981472</v>
       </c>
       <c r="K6">
-        <v>51.3560248650702</v>
+        <v>36.75071726221552</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>23.59187986439488</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.561692220697902</v>
+        <v>6.650663496243379</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.320919827336457</v>
+        <v>6.715292328197917</v>
       </c>
       <c r="E7">
-        <v>28.08110107888145</v>
+        <v>6.300189661442666</v>
       </c>
       <c r="F7">
-        <v>40.36901347270805</v>
+        <v>58.11992794748006</v>
       </c>
       <c r="G7">
-        <v>31.98966341771832</v>
+        <v>2.080533366150346</v>
       </c>
       <c r="H7">
-        <v>31.64640552180663</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.20526520025104</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.58414101486713</v>
       </c>
       <c r="K7">
-        <v>52.69387523903973</v>
+        <v>37.76514877677569</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>24.10738345411225</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.46777196718133</v>
+        <v>7.1154564318715</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.980769421307988</v>
+        <v>7.551808617450681</v>
       </c>
       <c r="E8">
-        <v>31.59736671244417</v>
+        <v>6.547516955804364</v>
       </c>
       <c r="F8">
-        <v>45.57105322385169</v>
+        <v>62.80782082348452</v>
       </c>
       <c r="G8">
-        <v>36.19617872175424</v>
+        <v>2.046473575072528</v>
       </c>
       <c r="H8">
-        <v>35.75102475593685</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.7452338611696</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.491149033648305</v>
       </c>
       <c r="K8">
-        <v>58.3581574149607</v>
+        <v>42.09774784196</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>26.8162547582182</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.0755463573409</v>
+        <v>7.989337070434638</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.338219221377532</v>
+        <v>9.162722503945366</v>
       </c>
       <c r="E9">
-        <v>38.47672714344633</v>
+        <v>7.064866235410616</v>
       </c>
       <c r="F9">
-        <v>55.84573512034314</v>
+        <v>72.52183777620866</v>
       </c>
       <c r="G9">
-        <v>44.50860777339252</v>
+        <v>1.977302971062985</v>
       </c>
       <c r="H9">
-        <v>43.91399426348043</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17.9511752636709</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.32008117702053</v>
       </c>
       <c r="K9">
-        <v>68.7683659564581</v>
+        <v>50.20887192456966</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>31.97568472314209</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.16230572613005</v>
+        <v>8.667175078580144</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.456103000561246</v>
+        <v>10.38135961938151</v>
       </c>
       <c r="E10">
-        <v>43.8724853799945</v>
+        <v>7.488370014209432</v>
       </c>
       <c r="F10">
-        <v>63.86841176762049</v>
+        <v>80.40207044152268</v>
       </c>
       <c r="G10">
-        <v>51.01298057945829</v>
+        <v>1.922074155548031</v>
       </c>
       <c r="H10">
-        <v>50.33265622417134</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>18.94816808457413</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.201370751246755</v>
       </c>
       <c r="K10">
-        <v>76.24271766357118</v>
+        <v>56.12624076472018</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>35.72430169614646</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.63939337982626</v>
+        <v>9.002489059279659</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.025345921698989</v>
+        <v>10.96292113859261</v>
       </c>
       <c r="E11">
-        <v>46.55404878515294</v>
+        <v>7.699595208614674</v>
       </c>
       <c r="F11">
-        <v>67.80249349488439</v>
+        <v>84.33899301330629</v>
       </c>
       <c r="G11">
-        <v>54.20926161983603</v>
+        <v>1.894904977199258</v>
       </c>
       <c r="H11">
-        <v>53.49380727641524</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.4341277346067</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.149052527504774</v>
       </c>
       <c r="K11">
-        <v>79.70931159025147</v>
+        <v>58.88057047176461</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>37.46457466966736</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.81802032085763</v>
+        <v>9.128035180729858</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.255179981298733</v>
+        <v>11.18975458801169</v>
       </c>
       <c r="E12">
-        <v>47.62735912267452</v>
+        <v>7.78355047667274</v>
       </c>
       <c r="F12">
-        <v>69.36206503574883</v>
+        <v>85.87964007006485</v>
       </c>
       <c r="G12">
-        <v>55.47780868969884</v>
+        <v>1.88417310585047</v>
       </c>
       <c r="H12">
-        <v>54.7494608138902</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.62402238538113</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.129520991779387</v>
       </c>
       <c r="K12">
-        <v>81.04811087974602</v>
+        <v>59.94240333472183</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>38.13464845464975</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.77963024245335</v>
+        <v>9.101054148644684</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.204912184324298</v>
+        <v>11.14054949673827</v>
       </c>
       <c r="E13">
-        <v>47.39300946920086</v>
+        <v>7.76526414757388</v>
       </c>
       <c r="F13">
-        <v>69.022383628426</v>
+        <v>85.54525125779398</v>
       </c>
       <c r="G13">
-        <v>55.20143868650851</v>
+        <v>1.886507362288966</v>
       </c>
       <c r="H13">
-        <v>54.47585252513485</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.58283656648264</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.133714021618613</v>
       </c>
       <c r="K13">
-        <v>80.75821957568333</v>
+        <v>59.71266811486701</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>37.9897132839046</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.65412640153139</v>
+        <v>9.012844354536597</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.043922026822829</v>
+        <v>10.98142991727234</v>
       </c>
       <c r="E14">
-        <v>46.64097690836301</v>
+        <v>7.706412731270709</v>
       </c>
       <c r="F14">
-        <v>67.92916053306386</v>
+        <v>84.46461598482752</v>
       </c>
       <c r="G14">
-        <v>54.3122594821098</v>
+        <v>1.894032080008762</v>
       </c>
       <c r="H14">
-        <v>53.59573724704224</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.44962323158025</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.147439703721322</v>
       </c>
       <c r="K14">
-        <v>79.81879526679447</v>
+        <v>58.96747609939518</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>37.51943447925901</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.57700427867157</v>
+        <v>8.958637822885022</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.947401642724605</v>
+        <v>10.88492877210152</v>
       </c>
       <c r="E15">
-        <v>46.18893855890039</v>
+        <v>7.670931792488686</v>
       </c>
       <c r="F15">
-        <v>67.26982493313645</v>
+        <v>83.80983261252396</v>
       </c>
       <c r="G15">
-        <v>53.77618943214348</v>
+        <v>1.898577710914061</v>
       </c>
       <c r="H15">
-        <v>53.06526702694716</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.36883903133807</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.155885253005883</v>
       </c>
       <c r="K15">
-        <v>79.24745404920864</v>
+        <v>58.51385364347858</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>37.2330477321002</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.13081229200704</v>
+        <v>8.645042983145991</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.420517252588586</v>
+        <v>10.3441023260948</v>
       </c>
       <c r="E16">
-        <v>43.70358368229724</v>
+        <v>7.475036124286421</v>
       </c>
       <c r="F16">
-        <v>63.61909644635323</v>
+        <v>80.15065592774863</v>
       </c>
       <c r="G16">
-        <v>50.810587480218</v>
+        <v>1.923797377177482</v>
       </c>
       <c r="H16">
-        <v>50.13262542939441</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>18.91715064820911</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.204826349064384</v>
       </c>
       <c r="K16">
-        <v>76.01868243508753</v>
+        <v>55.94823321976914</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>35.6117276632452</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.85291367997858</v>
+        <v>8.449771046749468</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.115773682923939</v>
+        <v>10.02083565650359</v>
       </c>
       <c r="E17">
-        <v>42.25020368841663</v>
+        <v>7.36035307026471</v>
       </c>
       <c r="F17">
-        <v>61.46773913538966</v>
+        <v>77.97425719390534</v>
       </c>
       <c r="G17">
-        <v>49.06487905170644</v>
+        <v>1.938659132376094</v>
       </c>
       <c r="H17">
-        <v>48.40803757944389</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>18.64903144837213</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.235300023535864</v>
       </c>
       <c r="K17">
-        <v>74.06374317093301</v>
+        <v>54.39596352900929</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>34.62953836448177</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.6914110762877</v>
+        <v>8.337677223071653</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.94575056446542</v>
+        <v>9.837247079560441</v>
       </c>
       <c r="E18">
-        <v>41.43353170462787</v>
+        <v>7.296034341546563</v>
       </c>
       <c r="F18">
-        <v>60.25473693217166</v>
+        <v>76.77335392071552</v>
       </c>
       <c r="G18">
-        <v>48.08116091310669</v>
+        <v>1.947026543445464</v>
       </c>
       <c r="H18">
-        <v>47.43684106037988</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>18.49777060911147</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.252982745955258</v>
       </c>
       <c r="K18">
-        <v>72.94421259908235</v>
+        <v>53.50824013598417</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>34.06742628939048</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.636433298916</v>
+        <v>8.306315493480804</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.88897025727414</v>
+        <v>9.775427279070147</v>
       </c>
       <c r="E19">
-        <v>41.15981085918201</v>
+        <v>7.274509703498717</v>
       </c>
       <c r="F19">
-        <v>59.84761549736205</v>
+        <v>76.38037579597857</v>
       </c>
       <c r="G19">
-        <v>47.75108097619618</v>
+        <v>1.949832058586778</v>
       </c>
       <c r="H19">
-        <v>47.11106853409159</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18.4470366055261</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.258995726029307</v>
       </c>
       <c r="K19">
-        <v>72.56565127316564</v>
+        <v>53.2083190156911</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>33.87744768053874</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.88266600992798</v>
+        <v>8.47067519420251</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.147640869966909</v>
+        <v>10.05498961287111</v>
       </c>
       <c r="E20">
-        <v>42.40279302105546</v>
+        <v>7.372383747242109</v>
       </c>
       <c r="F20">
-        <v>61.69407630319662</v>
+        <v>78.20374354728746</v>
       </c>
       <c r="G20">
-        <v>49.24847750423688</v>
+        <v>1.93709663538255</v>
       </c>
       <c r="H20">
-        <v>48.58934992577882</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>18.67726070670786</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.232039815107205</v>
       </c>
       <c r="K20">
-        <v>74.2712553897852</v>
+        <v>54.56062055425572</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>34.73376762291223</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.69104026671343</v>
+        <v>9.038789569496277</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.090756746310854</v>
+        <v>11.0279593038305</v>
       </c>
       <c r="E21">
-        <v>46.85999868827739</v>
+        <v>7.723577204385411</v>
       </c>
       <c r="F21">
-        <v>68.24803691675882</v>
+        <v>84.78049375278542</v>
       </c>
       <c r="G21">
-        <v>54.57157523467065</v>
+        <v>1.891835500125525</v>
       </c>
       <c r="H21">
-        <v>53.85238108570474</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.48857853654492</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.143400064527426</v>
       </c>
       <c r="K21">
-        <v>80.09382780437649</v>
+        <v>59.18574214442255</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>37.65720270632348</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.20795008511004</v>
+        <v>9.401995833565053</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.796855502767146</v>
+        <v>11.70486675922792</v>
       </c>
       <c r="E22">
-        <v>50.14091822434806</v>
+        <v>7.977468507448597</v>
       </c>
       <c r="F22">
-        <v>72.97191367523402</v>
+        <v>89.38491135547153</v>
       </c>
       <c r="G22">
-        <v>58.41757853120099</v>
+        <v>1.859532398795987</v>
       </c>
       <c r="H22">
-        <v>57.66137848146259</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20.05429033928201</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.087149856311727</v>
       </c>
       <c r="K22">
-        <v>84.07040801999304</v>
+        <v>62.32733627057382</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>39.63789988486388</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.93287679852778</v>
+        <v>9.208751844208228</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.408625432797134</v>
+        <v>11.33851807743619</v>
       </c>
       <c r="E23">
-        <v>48.34146234227671</v>
+        <v>7.839087625592398</v>
       </c>
       <c r="F23">
-        <v>70.39404814765253</v>
+        <v>86.89116200165165</v>
       </c>
       <c r="G23">
-        <v>56.31771001136146</v>
+        <v>1.877094943992044</v>
       </c>
       <c r="H23">
-        <v>55.58112545108336</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.74848319187166</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.11699507984904</v>
       </c>
       <c r="K23">
-        <v>81.92301594891478</v>
+        <v>60.63494234386354</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>38.57142061461878</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.86922041539088</v>
+        <v>8.46122818445863</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.133217938245624</v>
+        <v>10.03954174597538</v>
       </c>
       <c r="E24">
-        <v>42.33375011404211</v>
+        <v>7.366939737483337</v>
       </c>
       <c r="F24">
-        <v>61.59167684996672</v>
+        <v>78.09993247602858</v>
       </c>
       <c r="G24">
-        <v>49.16541215172703</v>
+        <v>1.93780358092772</v>
       </c>
       <c r="H24">
-        <v>48.50731693114303</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>18.66448935420884</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.233513249970816</v>
       </c>
       <c r="K24">
-        <v>74.17742649346111</v>
+        <v>54.48616514574356</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>34.68663800331819</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.65798556689982</v>
+        <v>7.757119915941005</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.957668484744332</v>
+        <v>8.725626793326782</v>
       </c>
       <c r="E25">
-        <v>36.58977191445808</v>
+        <v>6.919505317916144</v>
       </c>
       <c r="F25">
-        <v>53.02432372459506</v>
+        <v>69.81619201752478</v>
       </c>
       <c r="G25">
-        <v>42.22459772469614</v>
+        <v>1.996518839843015</v>
       </c>
       <c r="H25">
-        <v>41.6657434520759</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>17.60743862191781</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.365158688978305</v>
       </c>
       <c r="K25">
-        <v>66.00659430230367</v>
+        <v>48.03971222932248</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>30.59830242711256</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.238939625510824</v>
+        <v>20.0518166121011</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.775026960917001</v>
+        <v>8.254000365110066</v>
       </c>
       <c r="E2">
-        <v>6.616100717383605</v>
+        <v>50.73420479115861</v>
       </c>
       <c r="F2">
-        <v>64.10652558104715</v>
+        <v>62.31539530691932</v>
       </c>
       <c r="G2">
-        <v>2.03716434111166</v>
+        <v>1.918456765121582</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.1394396720377</v>
       </c>
       <c r="J2">
-        <v>5.466721970151402</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>43.24042942238182</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.87007377595034</v>
       </c>
       <c r="M2">
-        <v>27.54462658167142</v>
+        <v>18.00418401140871</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.878000238718076</v>
+        <v>18.60721880478513</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.124247099094901</v>
+        <v>7.57688418441129</v>
       </c>
       <c r="E3">
-        <v>6.419141702106436</v>
+        <v>46.86738542215971</v>
       </c>
       <c r="F3">
-        <v>60.3738002862877</v>
+        <v>57.14883026652191</v>
       </c>
       <c r="G3">
-        <v>2.064047341721541</v>
+        <v>1.949303858517086</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.17496902131314</v>
       </c>
       <c r="J3">
-        <v>5.538424755849834</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>39.8929840014689</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.71937579972845</v>
       </c>
       <c r="M3">
-        <v>25.4093674083335</v>
+        <v>16.67946417710564</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.65191594637735</v>
+        <v>17.68114967788705</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.717548157111953</v>
+        <v>7.237789849539107</v>
       </c>
       <c r="E4">
-        <v>6.300835167227183</v>
+        <v>44.44102638177269</v>
       </c>
       <c r="F4">
-        <v>58.13214245940446</v>
+        <v>53.97394341029057</v>
       </c>
       <c r="G4">
-        <v>2.080443307348596</v>
+        <v>1.967908867503022</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.81288684652773</v>
       </c>
       <c r="J4">
-        <v>5.583887715749285</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>37.77693545445828</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.99208058728239</v>
       </c>
       <c r="M4">
-        <v>24.11339822423424</v>
+        <v>15.83629490220928</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.558745688043276</v>
+        <v>17.32179626207955</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.549564105760007</v>
+        <v>7.103341848052381</v>
       </c>
       <c r="E5">
-        <v>6.253097367088141</v>
+        <v>43.43617541207499</v>
       </c>
       <c r="F5">
-        <v>57.22960947741959</v>
+        <v>52.67543200756624</v>
       </c>
       <c r="G5">
-        <v>2.087122718476953</v>
+        <v>1.975447596147343</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.07382070798151</v>
       </c>
       <c r="J5">
-        <v>5.602779813693547</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>36.89776233138053</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.6897589451657</v>
       </c>
       <c r="M5">
-        <v>23.66633326076096</v>
+        <v>15.48456708422573</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.543215054061974</v>
+        <v>17.26360495524901</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.521522614161138</v>
+        <v>7.081229223744723</v>
       </c>
       <c r="E6">
-        <v>6.245194391150561</v>
+        <v>43.26827482640589</v>
       </c>
       <c r="F6">
-        <v>57.08036974956551</v>
+        <v>52.45943499666193</v>
       </c>
       <c r="G6">
-        <v>2.088232365971457</v>
+        <v>1.97669783693232</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.11722049218266</v>
       </c>
       <c r="J6">
-        <v>5.605939048981472</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>36.75071726221552</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.63918145559132</v>
       </c>
       <c r="M6">
-        <v>23.59187986439488</v>
+        <v>15.42565574470905</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.650663496243379</v>
+        <v>17.6759636448582</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.715292328197917</v>
+        <v>7.235962132377252</v>
       </c>
       <c r="E7">
-        <v>6.300189661442666</v>
+        <v>44.42754318888464</v>
       </c>
       <c r="F7">
-        <v>58.11992794748006</v>
+        <v>53.95645479538174</v>
       </c>
       <c r="G7">
-        <v>2.080533366150346</v>
+        <v>1.968010663504887</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.81640134922143</v>
       </c>
       <c r="J7">
-        <v>5.58414101486713</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>37.76514877677569</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.98802827854095</v>
       </c>
       <c r="M7">
-        <v>24.10738345411225</v>
+        <v>15.83158504219764</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.1154564318715</v>
+        <v>19.56151956387612</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.551808617450681</v>
+        <v>7.994026589973431</v>
       </c>
       <c r="E8">
-        <v>6.547516955804364</v>
+        <v>49.40969497307815</v>
       </c>
       <c r="F8">
-        <v>62.80782082348452</v>
+        <v>60.53161655057662</v>
       </c>
       <c r="G8">
-        <v>2.046473575072528</v>
+        <v>1.92919059224689</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.49632549298999</v>
       </c>
       <c r="J8">
-        <v>5.491149033648305</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>42.09774784196</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.47713345537527</v>
       </c>
       <c r="M8">
-        <v>26.8162547582182</v>
+        <v>17.55317028829232</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.989337070434638</v>
+        <v>22.97723557877065</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.162722503945366</v>
+        <v>9.925972959684325</v>
       </c>
       <c r="E9">
-        <v>7.064866235410616</v>
+        <v>58.9572269028806</v>
       </c>
       <c r="F9">
-        <v>72.52183777620866</v>
+        <v>73.68375844185351</v>
       </c>
       <c r="G9">
-        <v>1.977302971062985</v>
+        <v>1.847796353979263</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10.90618372874793</v>
       </c>
       <c r="J9">
-        <v>5.32008117702053</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>50.20887192456966</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.27730599670365</v>
       </c>
       <c r="M9">
-        <v>31.97568472314209</v>
+        <v>20.73234896573241</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.667175078580144</v>
+        <v>25.37542405084564</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.38135961938151</v>
+        <v>11.49419512702225</v>
       </c>
       <c r="E10">
-        <v>7.488370014209432</v>
+        <v>66.26779706953798</v>
       </c>
       <c r="F10">
-        <v>80.40207044152268</v>
+        <v>84.15628597611847</v>
       </c>
       <c r="G10">
-        <v>1.922074155548031</v>
+        <v>1.77896551522876</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>8.998818616026663</v>
       </c>
       <c r="J10">
-        <v>5.201370751246755</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>56.12624076472018</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>19.35963041962047</v>
       </c>
       <c r="M10">
-        <v>35.72430169614646</v>
+        <v>23.03410113560219</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.002489059279659</v>
+        <v>26.468447009296</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.96292113859261</v>
+        <v>12.29144999653459</v>
       </c>
       <c r="E11">
-        <v>7.699595208614674</v>
+        <v>69.85607694339183</v>
       </c>
       <c r="F11">
-        <v>84.33899301330629</v>
+        <v>89.39943492849312</v>
       </c>
       <c r="G11">
-        <v>1.894904977199258</v>
+        <v>1.743051650589214</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>8.152679786277465</v>
       </c>
       <c r="J11">
-        <v>5.149052527504774</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>58.88057047176461</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>20.35620251380071</v>
       </c>
       <c r="M11">
-        <v>37.46457466966736</v>
+        <v>24.11196059059267</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.128035180729858</v>
+        <v>26.88708614111142</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.18975458801169</v>
+        <v>12.61448558173129</v>
       </c>
       <c r="E12">
-        <v>7.78355047667274</v>
+        <v>71.28757845505264</v>
       </c>
       <c r="F12">
-        <v>85.87964007006485</v>
+        <v>91.50702780328611</v>
       </c>
       <c r="G12">
-        <v>1.88417310585047</v>
+        <v>1.728328777916161</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>7.842934603764055</v>
       </c>
       <c r="J12">
-        <v>5.129520991779387</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>59.94240333472183</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>20.7482634175285</v>
       </c>
       <c r="M12">
-        <v>38.13464845464975</v>
+        <v>24.53111549522976</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.101054148644684</v>
+        <v>26.79660137753602</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.14054949673827</v>
+        <v>12.54373985347974</v>
       </c>
       <c r="E13">
-        <v>7.76526414757388</v>
+        <v>70.9751426504926</v>
       </c>
       <c r="F13">
-        <v>85.54525125779398</v>
+        <v>91.04631764894489</v>
       </c>
       <c r="G13">
-        <v>1.886507362288966</v>
+        <v>1.731561434502989</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>7.908926035332234</v>
       </c>
       <c r="J13">
-        <v>5.133714021618613</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>59.71266811486701</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>20.66297842663765</v>
       </c>
       <c r="M13">
-        <v>37.9897132839046</v>
+        <v>24.44018590658785</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.012844354536597</v>
+        <v>26.50275502276065</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.98142991727234</v>
+        <v>12.31752230254105</v>
       </c>
       <c r="E14">
-        <v>7.706412731270709</v>
+        <v>69.97208029949425</v>
       </c>
       <c r="F14">
-        <v>84.46461598482752</v>
+        <v>89.56990928807086</v>
       </c>
       <c r="G14">
-        <v>1.894032080008762</v>
+        <v>1.741866978733692</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>8.126900942974968</v>
       </c>
       <c r="J14">
-        <v>5.147439703721322</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>58.96747609939518</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>20.38809644991958</v>
       </c>
       <c r="M14">
-        <v>37.51943447925901</v>
+        <v>24.14616659580578</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.958637822885022</v>
+        <v>26.32357490627718</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.88492877210152</v>
+        <v>12.18210883188393</v>
       </c>
       <c r="E15">
-        <v>7.670931792488686</v>
+        <v>69.36868114263906</v>
       </c>
       <c r="F15">
-        <v>83.80983261252396</v>
+        <v>88.68380759063503</v>
       </c>
       <c r="G15">
-        <v>1.898577710914061</v>
+        <v>1.748012925369809</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>8.262206389893159</v>
       </c>
       <c r="J15">
-        <v>5.155885253005883</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>58.51385364347858</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>20.22196728212155</v>
       </c>
       <c r="M15">
-        <v>37.2330477321002</v>
+        <v>23.96778978583733</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.645042983145991</v>
+        <v>25.30434219546144</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.3441023260948</v>
+        <v>11.44440407199619</v>
       </c>
       <c r="E16">
-        <v>7.475036124286421</v>
+        <v>66.04098042751674</v>
       </c>
       <c r="F16">
-        <v>80.15065592774863</v>
+        <v>83.82694103884606</v>
       </c>
       <c r="G16">
-        <v>1.923797377177482</v>
+        <v>1.781188178767909</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>9.054995590001809</v>
       </c>
       <c r="J16">
-        <v>5.204826349064384</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>55.94823321976914</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>19.29601833911528</v>
       </c>
       <c r="M16">
-        <v>35.6117276632452</v>
+        <v>22.96473372839732</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.449771046749468</v>
+        <v>24.68187381175555</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.02083565650359</v>
+        <v>11.01788766713533</v>
       </c>
       <c r="E17">
-        <v>7.36035307026471</v>
+        <v>64.08436694855033</v>
       </c>
       <c r="F17">
-        <v>77.97425719390534</v>
+        <v>80.9969576055335</v>
       </c>
       <c r="G17">
-        <v>1.938659132376094</v>
+        <v>1.800128645995765</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>9.549785239187033</v>
       </c>
       <c r="J17">
-        <v>5.235300023535864</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>54.39596352900929</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>18.74445027988344</v>
       </c>
       <c r="M17">
-        <v>34.62953836448177</v>
+        <v>22.3606051078624</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.337677223071653</v>
+        <v>24.3236734160982</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.837247079560441</v>
+        <v>10.77970037391003</v>
       </c>
       <c r="E18">
-        <v>7.296034341546563</v>
+        <v>62.98077241428942</v>
       </c>
       <c r="F18">
-        <v>76.77335392071552</v>
+        <v>79.40986896365158</v>
       </c>
       <c r="G18">
-        <v>1.947026543445464</v>
+        <v>1.81062806810394</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>9.835700804990211</v>
       </c>
       <c r="J18">
-        <v>5.252982745955258</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>53.50824013598417</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>18.43121116732816</v>
       </c>
       <c r="M18">
-        <v>34.06742628939048</v>
+        <v>22.01547624634763</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.306315493480804</v>
+        <v>24.20227415581414</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.775427279070147</v>
+        <v>10.70010111263546</v>
       </c>
       <c r="E19">
-        <v>7.274509703498717</v>
+        <v>62.61017224235518</v>
       </c>
       <c r="F19">
-        <v>76.38037579597857</v>
+        <v>78.87843903788274</v>
       </c>
       <c r="G19">
-        <v>1.949832058586778</v>
+        <v>1.814124319184509</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>9.93263140506286</v>
       </c>
       <c r="J19">
-        <v>5.258995726029307</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>53.2083190156911</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>18.32569172029272</v>
       </c>
       <c r="M19">
-        <v>33.87744768053874</v>
+        <v>21.89889462120817</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.47067519420251</v>
+        <v>24.74813211992036</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.05498961287111</v>
+        <v>11.06250770851077</v>
       </c>
       <c r="E20">
-        <v>7.372383747242109</v>
+        <v>64.29022255085599</v>
       </c>
       <c r="F20">
-        <v>78.20374354728746</v>
+        <v>81.29374276549768</v>
       </c>
       <c r="G20">
-        <v>1.93709663538255</v>
+        <v>1.798155542706938</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>9.496949214075459</v>
       </c>
       <c r="J20">
-        <v>5.232039815107205</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>54.56062055425572</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>18.80271283973555</v>
       </c>
       <c r="M20">
-        <v>34.73376762291223</v>
+        <v>22.42463950463431</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.038789569496277</v>
+        <v>26.5888823324933</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.0279593038305</v>
+        <v>12.38328230708698</v>
       </c>
       <c r="E21">
-        <v>7.723577204385411</v>
+        <v>70.26429932586456</v>
       </c>
       <c r="F21">
-        <v>84.78049375278542</v>
+        <v>89.99959619638597</v>
       </c>
       <c r="G21">
-        <v>1.891835500125525</v>
+        <v>1.738876148821336</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>8.062472595369725</v>
       </c>
       <c r="J21">
-        <v>5.143400064527426</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>59.18574214442255</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>20.46834436620701</v>
       </c>
       <c r="M21">
-        <v>37.65720270632348</v>
+        <v>24.23214839113256</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.401995833565053</v>
+        <v>27.82536657447585</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.70486675922792</v>
+        <v>13.38199043813981</v>
       </c>
       <c r="E22">
-        <v>7.977468507448597</v>
+        <v>74.63999945226895</v>
       </c>
       <c r="F22">
-        <v>89.38491135547153</v>
+        <v>96.47308883819555</v>
       </c>
       <c r="G22">
-        <v>1.859532398795987</v>
+        <v>1.69296481803164</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>7.20197899473651</v>
       </c>
       <c r="J22">
-        <v>5.087149856311727</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>62.32733627057382</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>21.65268685665073</v>
       </c>
       <c r="M22">
-        <v>39.63789988486388</v>
+        <v>25.48631774691785</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.208751844208228</v>
+        <v>27.15963569473191</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.33851807743619</v>
+        <v>12.83084592649714</v>
       </c>
       <c r="E23">
-        <v>7.839087625592398</v>
+        <v>72.2394462773711</v>
       </c>
       <c r="F23">
-        <v>86.89116200165165</v>
+        <v>92.91296787552184</v>
       </c>
       <c r="G23">
-        <v>1.877094943992044</v>
+        <v>1.718413765776493</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>7.647931708771543</v>
       </c>
       <c r="J23">
-        <v>5.11699507984904</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>60.63494234386354</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>21.00707977311158</v>
       </c>
       <c r="M23">
-        <v>38.57142061461878</v>
+        <v>24.80618677208226</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.46122818445863</v>
+        <v>24.7181780559456</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.03954174597538</v>
+        <v>11.0423136675675</v>
       </c>
       <c r="E24">
-        <v>7.366939737483337</v>
+        <v>64.19709105412879</v>
       </c>
       <c r="F24">
-        <v>78.09993247602858</v>
+        <v>81.15944514997359</v>
       </c>
       <c r="G24">
-        <v>1.93780358092772</v>
+        <v>1.799048768332866</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>9.520832237947433</v>
       </c>
       <c r="J24">
-        <v>5.233513249970816</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>54.48616514574356</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>18.77636076391626</v>
       </c>
       <c r="M24">
-        <v>34.68663800331819</v>
+        <v>22.39568312697548</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.757119915941005</v>
+        <v>22.07856597020551</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.725626793326782</v>
+        <v>9.38824465699717</v>
       </c>
       <c r="E25">
-        <v>6.919505317916144</v>
+        <v>56.36496409400436</v>
       </c>
       <c r="F25">
-        <v>69.81619201752478</v>
+        <v>70.04857382765094</v>
       </c>
       <c r="G25">
-        <v>1.996518839843015</v>
+        <v>1.870830478663533</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.60914274446263</v>
       </c>
       <c r="J25">
-        <v>5.365158688978305</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>48.03971222932248</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.52494905539112</v>
       </c>
       <c r="M25">
-        <v>30.59830242711256</v>
+        <v>19.88661551163248</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.0518166121011</v>
+        <v>17.05054909069899</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.254000365110066</v>
+        <v>7.676382543134104</v>
       </c>
       <c r="E2">
-        <v>50.73420479115861</v>
+        <v>27.50581179381547</v>
       </c>
       <c r="F2">
-        <v>62.31539530691932</v>
+        <v>44.27141919123338</v>
       </c>
       <c r="G2">
-        <v>1.918456765121582</v>
+        <v>3.651604079620892</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.1394396720377</v>
+        <v>26.34611176671655</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.87007377595034</v>
+        <v>12.43441703384168</v>
       </c>
       <c r="M2">
-        <v>18.00418401140871</v>
+        <v>17.38399677081187</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.60721880478513</v>
+        <v>16.67879558153554</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.57688418441129</v>
+        <v>7.633035125208915</v>
       </c>
       <c r="E3">
-        <v>46.86738542215971</v>
+        <v>25.81246717813814</v>
       </c>
       <c r="F3">
-        <v>57.14883026652191</v>
+        <v>43.24329566181893</v>
       </c>
       <c r="G3">
-        <v>1.949303858517086</v>
+        <v>3.660063294624767</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.17496902131314</v>
+        <v>26.63002299561522</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.71937579972845</v>
+        <v>12.24082365066443</v>
       </c>
       <c r="M3">
-        <v>16.67946417710564</v>
+        <v>17.18722921392477</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.68114967788705</v>
+        <v>16.44924081419961</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.237789849539107</v>
+        <v>7.610667789945831</v>
       </c>
       <c r="E4">
-        <v>44.44102638177269</v>
+        <v>24.71344922119778</v>
       </c>
       <c r="F4">
-        <v>53.97394341029057</v>
+        <v>42.62499661438524</v>
       </c>
       <c r="G4">
-        <v>1.967908867503022</v>
+        <v>3.665499540223353</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.81288684652773</v>
+        <v>26.81199966931285</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.99208058728239</v>
+        <v>12.12397508631252</v>
       </c>
       <c r="M4">
-        <v>15.83629490220928</v>
+        <v>17.06896569252702</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.32179626207955</v>
+        <v>16.3554955109416</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.103341848052381</v>
+        <v>7.602614418295346</v>
       </c>
       <c r="E5">
-        <v>43.43617541207499</v>
+        <v>24.25073061485654</v>
       </c>
       <c r="F5">
-        <v>52.67543200756624</v>
+        <v>42.37667567551571</v>
       </c>
       <c r="G5">
-        <v>1.975447596147343</v>
+        <v>3.667776193795939</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.07382070798151</v>
+        <v>26.88809033227034</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.6897589451657</v>
+        <v>12.07691994136726</v>
       </c>
       <c r="M5">
-        <v>15.48456708422573</v>
+        <v>17.02146011713212</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.26360495524901</v>
+        <v>16.33992086773836</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.081229223744723</v>
+        <v>7.601341030038881</v>
       </c>
       <c r="E6">
-        <v>43.26827482640589</v>
+        <v>24.17300102663913</v>
       </c>
       <c r="F6">
-        <v>52.45943499666193</v>
+        <v>42.33567304436276</v>
       </c>
       <c r="G6">
-        <v>1.97669783693232</v>
+        <v>3.668157947437787</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.11722049218266</v>
+        <v>26.90084218346852</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.63918145559132</v>
+        <v>12.06914194859871</v>
       </c>
       <c r="M6">
-        <v>15.42565574470905</v>
+        <v>17.01361470834069</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.6759636448582</v>
+        <v>16.44797717187231</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.235962132377252</v>
+        <v>7.610554892043786</v>
       </c>
       <c r="E7">
-        <v>44.42754318888464</v>
+        <v>24.70726891817366</v>
       </c>
       <c r="F7">
-        <v>53.95645479538174</v>
+        <v>42.62163243232501</v>
       </c>
       <c r="G7">
-        <v>1.968010663504887</v>
+        <v>3.665529995050244</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.81640134922143</v>
+        <v>26.81301801313744</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.98802827854095</v>
+        <v>12.12333813962629</v>
       </c>
       <c r="M7">
-        <v>15.83158504219764</v>
+        <v>17.06832217124869</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.56151956387612</v>
+        <v>16.92271198167114</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.994026589973431</v>
+        <v>7.660551336923758</v>
       </c>
       <c r="E8">
-        <v>49.40969497307815</v>
+        <v>26.93427691759027</v>
       </c>
       <c r="F8">
-        <v>60.53161655057662</v>
+        <v>43.91445795114858</v>
       </c>
       <c r="G8">
-        <v>1.92919059224689</v>
+        <v>3.654470793615621</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.49632549298999</v>
+        <v>26.44242122172093</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>14.47713345537527</v>
+        <v>12.36727973674035</v>
       </c>
       <c r="M8">
-        <v>17.55317028829232</v>
+        <v>17.31564944032071</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.97723557877065</v>
+        <v>17.83806608874889</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.925972959684325</v>
+        <v>7.792483709177832</v>
       </c>
       <c r="E9">
-        <v>58.9572269028806</v>
+        <v>30.82986051423568</v>
       </c>
       <c r="F9">
-        <v>73.68375844185351</v>
+        <v>46.53593322069798</v>
       </c>
       <c r="G9">
-        <v>1.847796353979263</v>
+        <v>3.634686456783033</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.90618372874793</v>
+        <v>25.77599739319106</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.27730599670365</v>
+        <v>12.85926365890525</v>
       </c>
       <c r="M9">
-        <v>20.73234896573241</v>
+        <v>17.81884442011634</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.37542405084564</v>
+        <v>18.49433941609228</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.49419512702225</v>
+        <v>7.91015824069337</v>
       </c>
       <c r="E10">
-        <v>66.26779706953798</v>
+        <v>33.4043402720523</v>
       </c>
       <c r="F10">
-        <v>84.15628597611847</v>
+        <v>48.49256446729758</v>
       </c>
       <c r="G10">
-        <v>1.77896551522876</v>
+        <v>3.621283358729915</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.998818616026663</v>
+        <v>25.32255769341112</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.35963041962047</v>
+        <v>13.22581116544906</v>
       </c>
       <c r="M10">
-        <v>23.03410113560219</v>
+        <v>18.19681822286604</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.468447009296</v>
+        <v>18.78806964313493</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.29144999653459</v>
+        <v>7.968164934466861</v>
       </c>
       <c r="E11">
-        <v>69.85607694339183</v>
+        <v>34.51333905119021</v>
       </c>
       <c r="F11">
-        <v>89.39943492849312</v>
+        <v>49.38492264175672</v>
       </c>
       <c r="G11">
-        <v>1.743051650589214</v>
+        <v>3.615425808032569</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.152679786277465</v>
+        <v>25.12400647275316</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.35620251380071</v>
+        <v>13.39299893861475</v>
       </c>
       <c r="M11">
-        <v>24.11196059059267</v>
+        <v>18.36996403010465</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.88708614111142</v>
+        <v>18.89850649441471</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.61448558173129</v>
+        <v>7.990768199069318</v>
       </c>
       <c r="E12">
-        <v>71.28757845505264</v>
+        <v>34.92438235336168</v>
       </c>
       <c r="F12">
-        <v>91.50702780328611</v>
+        <v>49.72281814721153</v>
       </c>
       <c r="G12">
-        <v>1.728328777916161</v>
+        <v>3.613241670679495</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.842934603764055</v>
+        <v>25.04992085856295</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.7482634175285</v>
+        <v>13.4563182062166</v>
       </c>
       <c r="M12">
-        <v>24.53111549522976</v>
+        <v>18.43565284265668</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.79660137753602</v>
+        <v>18.87475870909712</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.54373985347974</v>
+        <v>7.985871954128523</v>
       </c>
       <c r="E13">
-        <v>70.9751426504926</v>
+        <v>34.83625262440911</v>
       </c>
       <c r="F13">
-        <v>91.04631764894489</v>
+        <v>49.65005256914029</v>
       </c>
       <c r="G13">
-        <v>1.731561434502989</v>
+        <v>3.613710559469749</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.908926035332234</v>
+        <v>25.06582767500089</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.66297842663765</v>
+        <v>13.44268172764099</v>
       </c>
       <c r="M13">
-        <v>24.44018590658785</v>
+        <v>18.42150094530304</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.50275502276065</v>
+        <v>18.79717178062404</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.31752230254105</v>
+        <v>7.970011787259653</v>
       </c>
       <c r="E14">
-        <v>69.97208029949425</v>
+        <v>34.54733423384023</v>
       </c>
       <c r="F14">
-        <v>89.56990928807086</v>
+        <v>49.41272385364918</v>
       </c>
       <c r="G14">
-        <v>1.741866978733692</v>
+        <v>3.615245439207181</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.126900942974968</v>
+        <v>25.11788938094787</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.38809644991958</v>
+        <v>13.39820838251803</v>
       </c>
       <c r="M14">
-        <v>24.14616659580578</v>
+        <v>18.37536612654814</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.32357490627718</v>
+        <v>18.7495414910938</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.18210883188393</v>
+        <v>7.960379764464269</v>
       </c>
       <c r="E15">
-        <v>69.36868114263906</v>
+        <v>34.36920387407331</v>
       </c>
       <c r="F15">
-        <v>88.68380759063503</v>
+        <v>49.26734042195914</v>
       </c>
       <c r="G15">
-        <v>1.748012925369809</v>
+        <v>3.616190010006878</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.262206389893159</v>
+        <v>25.14992185591405</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.22196728212155</v>
+        <v>13.37096673453544</v>
       </c>
       <c r="M15">
-        <v>23.96778978583733</v>
+        <v>18.34712164329796</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.30434219546144</v>
+        <v>18.47503787727701</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.44440407199619</v>
+        <v>7.906456946483992</v>
       </c>
       <c r="E16">
-        <v>66.04098042751674</v>
+        <v>33.33061610962686</v>
       </c>
       <c r="F16">
-        <v>83.82694103884606</v>
+        <v>48.43426230437753</v>
       </c>
       <c r="G16">
-        <v>1.781188178767909</v>
+        <v>3.621670945192642</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.054995590001809</v>
+        <v>25.33568809010384</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.29601833911528</v>
+        <v>13.21488924207387</v>
       </c>
       <c r="M16">
-        <v>22.96473372839732</v>
+        <v>18.18552259607132</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.68187381175555</v>
+        <v>18.30533263549508</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.01788766713533</v>
+        <v>7.874519645735839</v>
       </c>
       <c r="E17">
-        <v>64.08436694855033</v>
+        <v>32.67757517893393</v>
       </c>
       <c r="F17">
-        <v>80.9969576055335</v>
+        <v>47.92352446869953</v>
       </c>
       <c r="G17">
-        <v>1.800128645995765</v>
+        <v>3.625094358674867</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9.549785239187033</v>
+        <v>25.45162085096669</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.74445027988344</v>
+        <v>13.1192147277826</v>
       </c>
       <c r="M17">
-        <v>22.3606051078624</v>
+        <v>18.08665871376878</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.3236734160982</v>
+        <v>18.20727532055141</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.77970037391003</v>
+        <v>7.856571962646772</v>
       </c>
       <c r="E18">
-        <v>62.98077241428942</v>
+        <v>32.29611181259808</v>
       </c>
       <c r="F18">
-        <v>79.40986896365158</v>
+        <v>47.62999549511531</v>
       </c>
       <c r="G18">
-        <v>1.81062806810394</v>
+        <v>3.627085994622055</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.835700804990211</v>
+        <v>25.51902954963134</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.43121116732816</v>
+        <v>13.06423020090114</v>
       </c>
       <c r="M18">
-        <v>22.01547624634763</v>
+        <v>18.02991112130875</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.20227415581414</v>
+        <v>18.17400114426982</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.70010111263546</v>
+        <v>7.850567788521444</v>
       </c>
       <c r="E19">
-        <v>62.61017224235518</v>
+        <v>32.16594921445516</v>
       </c>
       <c r="F19">
-        <v>78.87843903788274</v>
+        <v>47.5306627646187</v>
       </c>
       <c r="G19">
-        <v>1.814124319184509</v>
+        <v>3.627764220261896</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.93263140506286</v>
+        <v>25.5419781501568</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.32569172029272</v>
+        <v>13.04562280211534</v>
       </c>
       <c r="M19">
-        <v>21.89889462120817</v>
+        <v>18.01071889590275</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.74813211992036</v>
+        <v>18.32344509755498</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.06250770851077</v>
+        <v>7.877875809322281</v>
       </c>
       <c r="E20">
-        <v>64.29022255085599</v>
+        <v>32.74769794570469</v>
       </c>
       <c r="F20">
-        <v>81.29374276549768</v>
+        <v>47.97787176492601</v>
       </c>
       <c r="G20">
-        <v>1.798155542706938</v>
+        <v>3.624727596942458</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.496949214075459</v>
+        <v>25.43920440796272</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.80271283973555</v>
+        <v>13.12939519715533</v>
       </c>
       <c r="M20">
-        <v>22.42463950463431</v>
+        <v>18.0971712769334</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.5888823324933</v>
+        <v>18.81998321338309</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.38328230708698</v>
+        <v>7.97465306383973</v>
       </c>
       <c r="E21">
-        <v>70.26429932586456</v>
+        <v>34.632438151364</v>
       </c>
       <c r="F21">
-        <v>89.99959619638597</v>
+        <v>49.48243629738227</v>
       </c>
       <c r="G21">
-        <v>1.738876148821336</v>
+        <v>3.61479368906486</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.062472595369725</v>
+        <v>25.10256777359528</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.46834436620701</v>
+        <v>13.41127146894975</v>
       </c>
       <c r="M21">
-        <v>24.23214839113256</v>
+        <v>18.3889141244427</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.82536657447585</v>
+        <v>19.13983924455314</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.38199043813981</v>
+        <v>8.041613523530863</v>
       </c>
       <c r="E22">
-        <v>74.63999945226895</v>
+        <v>35.81230503480973</v>
       </c>
       <c r="F22">
-        <v>96.47308883819555</v>
+        <v>50.46548655778771</v>
       </c>
       <c r="G22">
-        <v>1.69296481803164</v>
+        <v>3.608499205343521</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.20197899473651</v>
+        <v>24.88897215171618</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>21.65268685665073</v>
+        <v>13.59552163629018</v>
       </c>
       <c r="M22">
-        <v>25.48631774691785</v>
+        <v>18.58027455436396</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.15963569473191</v>
+        <v>18.96958382821223</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.83084592649714</v>
+        <v>8.005538483917126</v>
       </c>
       <c r="E23">
-        <v>72.2394462773711</v>
+        <v>35.18732803206861</v>
       </c>
       <c r="F23">
-        <v>92.91296787552184</v>
+        <v>49.94094837564175</v>
       </c>
       <c r="G23">
-        <v>1.718413765776493</v>
+        <v>3.611840736749996</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.647931708771543</v>
+        <v>25.00238800390025</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.00707977311158</v>
+        <v>13.49719895001573</v>
       </c>
       <c r="M23">
-        <v>24.80618677208226</v>
+        <v>18.4780953704834</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.7181780559456</v>
+        <v>18.3152579767031</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.0423136675675</v>
+        <v>7.876357199364234</v>
       </c>
       <c r="E24">
-        <v>64.19709105412879</v>
+        <v>32.71601420015622</v>
       </c>
       <c r="F24">
-        <v>81.15944514997359</v>
+        <v>47.95330101098138</v>
       </c>
       <c r="G24">
-        <v>1.799048768332866</v>
+        <v>3.624893336782864</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.520832237947433</v>
+        <v>25.44481552201396</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.77636076391626</v>
+        <v>13.12479254039128</v>
       </c>
       <c r="M24">
-        <v>22.39568312697548</v>
+        <v>18.09241826115674</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.07856597020551</v>
+        <v>17.59282653020763</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.38824465699717</v>
+        <v>7.753146386322217</v>
       </c>
       <c r="E25">
-        <v>56.36496409400436</v>
+        <v>29.82655572448443</v>
       </c>
       <c r="F25">
-        <v>70.04857382765094</v>
+        <v>45.81982399594403</v>
       </c>
       <c r="G25">
-        <v>1.870830478663533</v>
+        <v>3.639837763827555</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.60914274446263</v>
+        <v>25.94988635297622</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.52494905539112</v>
+        <v>12.7250447923863</v>
       </c>
       <c r="M25">
-        <v>19.88661551163248</v>
+        <v>17.68105855489277</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.05054909069899</v>
+        <v>20.05181661210113</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.676382543134104</v>
+        <v>8.254000365110052</v>
       </c>
       <c r="E2">
-        <v>27.50581179381547</v>
+        <v>50.73420479115847</v>
       </c>
       <c r="F2">
-        <v>44.27141919123338</v>
+        <v>62.3153953069195</v>
       </c>
       <c r="G2">
-        <v>3.651604079620892</v>
+        <v>1.918456765121454</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.34611176671655</v>
+        <v>13.13943967203754</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.43441703384168</v>
+        <v>14.87007377595032</v>
       </c>
       <c r="M2">
-        <v>17.38399677081187</v>
+        <v>18.00418401140872</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.67879558153554</v>
+        <v>18.60721880478519</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.633035125208915</v>
+        <v>7.576884184411287</v>
       </c>
       <c r="E3">
-        <v>25.81246717813814</v>
+        <v>46.86738542215977</v>
       </c>
       <c r="F3">
-        <v>43.24329566181893</v>
+        <v>57.14883026652207</v>
       </c>
       <c r="G3">
-        <v>3.660063294624767</v>
+        <v>1.949303858516948</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.63002299561522</v>
+        <v>14.17496902131279</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.24082365066443</v>
+        <v>13.71937579972843</v>
       </c>
       <c r="M3">
-        <v>17.18722921392477</v>
+        <v>16.67946417710565</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.44924081419961</v>
+        <v>17.68114967788711</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.610667789945831</v>
+        <v>7.237789849539114</v>
       </c>
       <c r="E4">
-        <v>24.71344922119778</v>
+        <v>44.44102638177284</v>
       </c>
       <c r="F4">
-        <v>42.62499661438524</v>
+        <v>53.97394341029068</v>
       </c>
       <c r="G4">
-        <v>3.665499540223353</v>
+        <v>1.967908867502878</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.81199966931285</v>
+        <v>14.8128868465276</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.12397508631252</v>
+        <v>12.99208058728238</v>
       </c>
       <c r="M4">
-        <v>17.06896569252702</v>
+        <v>15.83629490220931</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.3554955109416</v>
+        <v>17.32179626207957</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.602614418295346</v>
+        <v>7.103341848052406</v>
       </c>
       <c r="E5">
-        <v>24.25073061485654</v>
+        <v>43.43617541207486</v>
       </c>
       <c r="F5">
-        <v>42.37667567551571</v>
+        <v>52.67543200756614</v>
       </c>
       <c r="G5">
-        <v>3.667776193795939</v>
+        <v>1.975447596147342</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.88809033227034</v>
+        <v>15.07382070798154</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.07691994136726</v>
+        <v>12.68975894516569</v>
       </c>
       <c r="M5">
-        <v>17.02146011713212</v>
+        <v>15.48456708422572</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.33992086773836</v>
+        <v>17.263604955249</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.601341030038881</v>
+        <v>7.081229223744756</v>
       </c>
       <c r="E6">
-        <v>24.17300102663913</v>
+        <v>43.26827482640591</v>
       </c>
       <c r="F6">
-        <v>42.33567304436276</v>
+        <v>52.45943499666198</v>
       </c>
       <c r="G6">
-        <v>3.668157947437787</v>
+        <v>1.976697836932325</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.90084218346852</v>
+        <v>15.11722049218266</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.06914194859871</v>
+        <v>12.63918145559139</v>
       </c>
       <c r="M6">
-        <v>17.01361470834069</v>
+        <v>15.42565574470907</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.44797717187231</v>
+        <v>17.67596364485817</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.610554892043786</v>
+        <v>7.235962132377306</v>
       </c>
       <c r="E7">
-        <v>24.70726891817366</v>
+        <v>44.42754318888477</v>
       </c>
       <c r="F7">
-        <v>42.62163243232501</v>
+        <v>53.95645479538194</v>
       </c>
       <c r="G7">
-        <v>3.665529995050244</v>
+        <v>1.968010663504887</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.81301801313744</v>
+        <v>14.81640134922141</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.12333813962629</v>
+        <v>12.98802827854102</v>
       </c>
       <c r="M7">
-        <v>17.06832217124869</v>
+        <v>15.83158504219766</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.92271198167114</v>
+        <v>19.5615195638761</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.660551336923758</v>
+        <v>7.994026589973388</v>
       </c>
       <c r="E8">
-        <v>26.93427691759027</v>
+        <v>49.40969497307812</v>
       </c>
       <c r="F8">
-        <v>43.91445795114858</v>
+        <v>60.53161655057652</v>
       </c>
       <c r="G8">
-        <v>3.654470793615621</v>
+        <v>1.929190592246762</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.44242122172093</v>
+        <v>13.4963254929902</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.36727973674035</v>
+        <v>14.47713345537523</v>
       </c>
       <c r="M8">
-        <v>17.31564944032071</v>
+        <v>17.55317028829227</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.83806608874889</v>
+        <v>22.97723557877064</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.792483709177832</v>
+        <v>9.925972959684396</v>
       </c>
       <c r="E9">
-        <v>30.82986051423568</v>
+        <v>58.95722690288066</v>
       </c>
       <c r="F9">
-        <v>46.53593322069798</v>
+        <v>73.68375844185331</v>
       </c>
       <c r="G9">
-        <v>3.634686456783033</v>
+        <v>1.847796353979508</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.77599739319106</v>
+        <v>10.90618372874811</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.85926365890525</v>
+        <v>17.27730599670355</v>
       </c>
       <c r="M9">
-        <v>17.81884442011634</v>
+        <v>20.73234896573233</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.49433941609228</v>
+        <v>25.37542405084567</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.91015824069337</v>
+        <v>11.49419512702221</v>
       </c>
       <c r="E10">
-        <v>33.4043402720523</v>
+        <v>66.26779706953781</v>
       </c>
       <c r="F10">
-        <v>48.49256446729758</v>
+        <v>84.15628597611824</v>
       </c>
       <c r="G10">
-        <v>3.621283358729915</v>
+        <v>1.778965515228728</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.32255769341112</v>
+        <v>8.998818616026636</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.22581116544906</v>
+        <v>19.35963041962042</v>
       </c>
       <c r="M10">
-        <v>18.19681822286604</v>
+        <v>23.03410113560216</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.78806964313493</v>
+        <v>26.46844700929605</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.968164934466861</v>
+        <v>12.29144999653473</v>
       </c>
       <c r="E11">
-        <v>34.51333905119021</v>
+        <v>69.85607694339191</v>
       </c>
       <c r="F11">
-        <v>49.38492264175672</v>
+        <v>89.39943492849309</v>
       </c>
       <c r="G11">
-        <v>3.615425808032569</v>
+        <v>1.743051650589495</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.12400647275316</v>
+        <v>8.152679786277361</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.39299893861475</v>
+        <v>20.35620251380071</v>
       </c>
       <c r="M11">
-        <v>18.36996403010465</v>
+        <v>24.11196059059269</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.89850649441471</v>
+        <v>26.8870861411114</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.990768199069318</v>
+        <v>12.61448558173133</v>
       </c>
       <c r="E12">
-        <v>34.92438235336168</v>
+        <v>71.28757845505247</v>
       </c>
       <c r="F12">
-        <v>49.72281814721153</v>
+        <v>91.50702780328589</v>
       </c>
       <c r="G12">
-        <v>3.613241670679495</v>
+        <v>1.728328777916216</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.04992085856295</v>
+        <v>7.842934603764126</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.4563182062166</v>
+        <v>20.74826341752849</v>
       </c>
       <c r="M12">
-        <v>18.43565284265668</v>
+        <v>24.53111549522974</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.87475870909712</v>
+        <v>26.79660137753596</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.985871954128523</v>
+        <v>12.54373985347974</v>
       </c>
       <c r="E13">
-        <v>34.83625262440911</v>
+        <v>70.97514265049242</v>
       </c>
       <c r="F13">
-        <v>49.65005256914029</v>
+        <v>91.04631764894442</v>
       </c>
       <c r="G13">
-        <v>3.613710559469749</v>
+        <v>1.731561434503008</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.06582767500089</v>
+        <v>7.908926035332326</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.44268172764099</v>
+        <v>20.66297842663761</v>
       </c>
       <c r="M13">
-        <v>18.42150094530304</v>
+        <v>24.44018590658778</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.79717178062404</v>
+        <v>26.50275502276068</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.970011787259653</v>
+        <v>12.31752230254095</v>
       </c>
       <c r="E14">
-        <v>34.54733423384023</v>
+        <v>69.97208029949419</v>
       </c>
       <c r="F14">
-        <v>49.41272385364918</v>
+        <v>89.56990928807099</v>
       </c>
       <c r="G14">
-        <v>3.615245439207181</v>
+        <v>1.741866978733528</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.11788938094787</v>
+        <v>8.126900942974887</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.39820838251803</v>
+        <v>20.38809644991962</v>
       </c>
       <c r="M14">
-        <v>18.37536612654814</v>
+        <v>24.14616659580581</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.7495414910938</v>
+        <v>26.32357490627715</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.960379764464269</v>
+        <v>12.18210883188395</v>
       </c>
       <c r="E15">
-        <v>34.36920387407331</v>
+        <v>69.3686811426393</v>
       </c>
       <c r="F15">
-        <v>49.26734042195914</v>
+        <v>88.68380759063531</v>
       </c>
       <c r="G15">
-        <v>3.616190010006878</v>
+        <v>1.748012925369745</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.14992185591405</v>
+        <v>8.262206389893143</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.37096673453544</v>
+        <v>20.22196728212161</v>
       </c>
       <c r="M15">
-        <v>18.34712164329796</v>
+        <v>23.96778978583735</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.47503787727701</v>
+        <v>25.3043421954614</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.906456946483992</v>
+        <v>11.4444040719962</v>
       </c>
       <c r="E16">
-        <v>33.33061610962686</v>
+        <v>66.04098042751625</v>
       </c>
       <c r="F16">
-        <v>48.43426230437753</v>
+        <v>83.82694103884512</v>
       </c>
       <c r="G16">
-        <v>3.621670945192642</v>
+        <v>1.781188178768173</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.33568809010384</v>
+        <v>9.054995590001987</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.21488924207387</v>
+        <v>19.29601833911512</v>
       </c>
       <c r="M16">
-        <v>18.18552259607132</v>
+        <v>22.96473372839719</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.30533263549508</v>
+        <v>24.68187381175553</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.874519645735839</v>
+        <v>11.01788766713532</v>
       </c>
       <c r="E17">
-        <v>32.67757517893393</v>
+        <v>64.08436694855052</v>
       </c>
       <c r="F17">
-        <v>47.92352446869953</v>
+        <v>80.99695760553374</v>
       </c>
       <c r="G17">
-        <v>3.625094358674867</v>
+        <v>1.800128645995895</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.45162085096669</v>
+        <v>9.549785239187104</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.1192147277826</v>
+        <v>18.74445027988342</v>
       </c>
       <c r="M17">
-        <v>18.08665871376878</v>
+        <v>22.36060510786238</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.20727532055141</v>
+        <v>24.32367341609821</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.856571962646772</v>
+        <v>10.77970037391004</v>
       </c>
       <c r="E18">
-        <v>32.29611181259808</v>
+        <v>62.98077241428965</v>
       </c>
       <c r="F18">
-        <v>47.62999549511531</v>
+        <v>79.40986896365196</v>
       </c>
       <c r="G18">
-        <v>3.627085994622055</v>
+        <v>1.810628068103931</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.51902954963134</v>
+        <v>9.835700804990259</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.06423020090114</v>
+        <v>18.43121116732816</v>
       </c>
       <c r="M18">
-        <v>18.02991112130875</v>
+        <v>22.01547624634762</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.17400114426982</v>
+        <v>24.2022741558141</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.850567788521444</v>
+        <v>10.70010111263558</v>
       </c>
       <c r="E19">
-        <v>32.16594921445516</v>
+        <v>62.61017224235506</v>
       </c>
       <c r="F19">
-        <v>47.5306627646187</v>
+        <v>78.87843903788274</v>
       </c>
       <c r="G19">
-        <v>3.627764220261896</v>
+        <v>1.814124319184496</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.5419781501568</v>
+        <v>9.932631405062873</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.04562280211534</v>
+        <v>18.32569172029271</v>
       </c>
       <c r="M19">
-        <v>18.01071889590275</v>
+        <v>21.89889462120817</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.32344509755498</v>
+        <v>24.74813211992041</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.877875809322281</v>
+        <v>11.0625077085107</v>
       </c>
       <c r="E20">
-        <v>32.74769794570469</v>
+        <v>64.29022255085593</v>
       </c>
       <c r="F20">
-        <v>47.97787176492601</v>
+        <v>81.29374276549748</v>
       </c>
       <c r="G20">
-        <v>3.624727596942458</v>
+        <v>1.798155542706925</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.43920440796272</v>
+        <v>9.496949214075368</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.12939519715533</v>
+        <v>18.80271283973553</v>
       </c>
       <c r="M20">
-        <v>18.0971712769334</v>
+        <v>22.42463950463433</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.81998321338309</v>
+        <v>26.5888823324933</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.97465306383973</v>
+        <v>12.38328230708708</v>
       </c>
       <c r="E21">
-        <v>34.632438151364</v>
+        <v>70.2642993258649</v>
       </c>
       <c r="F21">
-        <v>49.48243629738227</v>
+        <v>89.99959619638639</v>
       </c>
       <c r="G21">
-        <v>3.61479368906486</v>
+        <v>1.738876148821346</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.10256777359528</v>
+        <v>8.062472595369719</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.41127146894975</v>
+        <v>20.46834436620706</v>
       </c>
       <c r="M21">
-        <v>18.3889141244427</v>
+        <v>24.2321483911326</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.13983924455314</v>
+        <v>27.82536657447594</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.041613523530863</v>
+        <v>13.38199043813985</v>
       </c>
       <c r="E22">
-        <v>35.81230503480973</v>
+        <v>74.63999945226925</v>
       </c>
       <c r="F22">
-        <v>50.46548655778771</v>
+        <v>96.47308883819619</v>
       </c>
       <c r="G22">
-        <v>3.608499205343521</v>
+        <v>1.692964818031587</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.88897215171618</v>
+        <v>7.201978994736388</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.59552163629018</v>
+        <v>21.65268685665086</v>
       </c>
       <c r="M22">
-        <v>18.58027455436396</v>
+        <v>25.48631774691797</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.96958382821223</v>
+        <v>27.1596356947319</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.005538483917126</v>
+        <v>12.8308459264972</v>
       </c>
       <c r="E23">
-        <v>35.18732803206861</v>
+        <v>72.23944627737102</v>
       </c>
       <c r="F23">
-        <v>49.94094837564175</v>
+        <v>92.91296787552183</v>
       </c>
       <c r="G23">
-        <v>3.611840736749996</v>
+        <v>1.718413765776296</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.00238800390025</v>
+        <v>7.6479317087716</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.49719895001573</v>
+        <v>21.0070797731116</v>
       </c>
       <c r="M23">
-        <v>18.4780953704834</v>
+        <v>24.80618677208227</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.3152579767031</v>
+        <v>24.71817805594558</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.876357199364234</v>
+        <v>11.04231366756752</v>
       </c>
       <c r="E24">
-        <v>32.71601420015622</v>
+        <v>64.19709105412855</v>
       </c>
       <c r="F24">
-        <v>47.95330101098138</v>
+        <v>81.15944514997345</v>
       </c>
       <c r="G24">
-        <v>3.624893336782864</v>
+        <v>1.799048768332737</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.44481552201396</v>
+        <v>9.520832237947229</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.12479254039128</v>
+        <v>18.77636076391621</v>
       </c>
       <c r="M24">
-        <v>18.09241826115674</v>
+        <v>22.39568312697544</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.59282653020763</v>
+        <v>22.0785659702055</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.753146386322217</v>
+        <v>9.388244656997143</v>
       </c>
       <c r="E25">
-        <v>29.82655572448443</v>
+        <v>56.36496409400407</v>
       </c>
       <c r="F25">
-        <v>45.81982399594403</v>
+        <v>70.04857382765064</v>
       </c>
       <c r="G25">
-        <v>3.639837763827555</v>
+        <v>1.870830478663406</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.94988635297622</v>
+        <v>11.60914274446273</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.7250447923863</v>
+        <v>16.52494905539108</v>
       </c>
       <c r="M25">
-        <v>17.68105855489277</v>
+        <v>19.88661551163247</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.05181661210113</v>
+        <v>6.201209673661976</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.254000365110052</v>
+        <v>5.00694780263624</v>
       </c>
       <c r="E2">
-        <v>50.73420479115847</v>
+        <v>8.631152726177522</v>
       </c>
       <c r="F2">
-        <v>62.3153953069195</v>
+        <v>29.64743947134957</v>
       </c>
       <c r="G2">
-        <v>1.918456765121454</v>
+        <v>37.85513243743709</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.495938234288242</v>
       </c>
       <c r="I2">
-        <v>13.13943967203754</v>
+        <v>3.983261827975579</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.30643334605314</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.38273741946447</v>
       </c>
       <c r="L2">
-        <v>14.87007377595032</v>
+        <v>6.358065203304706</v>
       </c>
       <c r="M2">
-        <v>18.00418401140872</v>
+        <v>16.28181023232868</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.59181841861623</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.60721880478519</v>
+        <v>5.905362032078076</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.576884184411287</v>
+        <v>4.799854835375609</v>
       </c>
       <c r="E3">
-        <v>46.86738542215977</v>
+        <v>8.310395926941876</v>
       </c>
       <c r="F3">
-        <v>57.14883026652207</v>
+        <v>28.88847312731179</v>
       </c>
       <c r="G3">
-        <v>1.949303858516948</v>
+        <v>36.70405214020633</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.773282453594303</v>
       </c>
       <c r="I3">
-        <v>14.17496902131279</v>
+        <v>4.104904718948539</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.18507640466576</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.53354596438688</v>
       </c>
       <c r="L3">
-        <v>13.71937579972843</v>
+        <v>6.228996107117523</v>
       </c>
       <c r="M3">
-        <v>16.67946417710565</v>
+        <v>15.24659037455649</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.87340088767172</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.68114967788711</v>
+        <v>5.711680751417185</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.237789849539114</v>
+        <v>4.669158159436937</v>
       </c>
       <c r="E4">
-        <v>44.44102638177284</v>
+        <v>8.106658419247143</v>
       </c>
       <c r="F4">
-        <v>53.97394341029068</v>
+        <v>28.42133725316884</v>
       </c>
       <c r="G4">
-        <v>1.967908867502878</v>
+        <v>35.99353982627382</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.949198891064954</v>
       </c>
       <c r="I4">
-        <v>14.8128868465276</v>
+        <v>4.182746669771509</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.11376743665664</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.62625819683364</v>
       </c>
       <c r="L4">
-        <v>12.99208058728238</v>
+        <v>6.147203627422225</v>
       </c>
       <c r="M4">
-        <v>15.83629490220931</v>
+        <v>14.5785899220118</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.41547676917257</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.32179626207957</v>
+        <v>5.62081106278839</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.103341848052406</v>
+        <v>4.617216468634876</v>
       </c>
       <c r="E5">
-        <v>43.43617541207486</v>
+        <v>8.021719154829455</v>
       </c>
       <c r="F5">
-        <v>52.67543200756614</v>
+        <v>28.21725501198638</v>
       </c>
       <c r="G5">
-        <v>1.975447596147342</v>
+        <v>35.67929376369566</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.022438070870439</v>
       </c>
       <c r="I5">
-        <v>15.07382070798154</v>
+        <v>4.217862739847117</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.08082880183182</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.65493179674915</v>
       </c>
       <c r="L5">
-        <v>12.68975894516569</v>
+        <v>6.112444558564993</v>
       </c>
       <c r="M5">
-        <v>15.48456708422572</v>
+        <v>14.30657665973703</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.23043672758494</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.263604955249</v>
+        <v>5.594571073715183</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.081229223744756</v>
+        <v>4.611197203519738</v>
       </c>
       <c r="E6">
-        <v>43.26827482640591</v>
+        <v>8.007219263329402</v>
       </c>
       <c r="F6">
-        <v>52.45943499666198</v>
+        <v>28.1667034899994</v>
       </c>
       <c r="G6">
-        <v>1.976697836932325</v>
+        <v>35.5976309211715</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.034817248532381</v>
       </c>
       <c r="I6">
-        <v>15.11722049218266</v>
+        <v>4.227039760884978</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.06968984983785</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.64856531801989</v>
       </c>
       <c r="L6">
-        <v>12.63918145559139</v>
+        <v>6.105667937605197</v>
       </c>
       <c r="M6">
-        <v>15.42565574470907</v>
+        <v>14.27111926980086</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.20637657599832</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.67596364485817</v>
+        <v>5.680909654855441</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.235962132377306</v>
+        <v>4.675601080776848</v>
       </c>
       <c r="E7">
-        <v>44.42754318888477</v>
+        <v>8.104726264624258</v>
       </c>
       <c r="F7">
-        <v>53.95645479538194</v>
+        <v>28.37353641410084</v>
       </c>
       <c r="G7">
-        <v>1.968010663504887</v>
+        <v>35.90979092403658</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.950525827865248</v>
       </c>
       <c r="I7">
-        <v>14.81640134922141</v>
+        <v>4.191926674870617</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.09779378266956</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.59626041008583</v>
       </c>
       <c r="L7">
-        <v>12.98802827854102</v>
+        <v>6.144125359384585</v>
       </c>
       <c r="M7">
-        <v>15.83158504219766</v>
+        <v>14.60217546369092</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.4314818140854</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.5615195638761</v>
+        <v>6.064562632671763</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.994026589973388</v>
+        <v>4.945254256929808</v>
       </c>
       <c r="E8">
-        <v>49.40969497307812</v>
+        <v>8.521001721769936</v>
       </c>
       <c r="F8">
-        <v>60.53161655057652</v>
+        <v>29.3286596458586</v>
       </c>
       <c r="G8">
-        <v>1.929190592246762</v>
+        <v>37.35837575260584</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.590831753949324</v>
       </c>
       <c r="I8">
-        <v>13.4963254929902</v>
+        <v>4.035477978648268</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.2438002371649</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.39483158426254</v>
       </c>
       <c r="L8">
-        <v>14.47713345537523</v>
+        <v>6.31075781423454</v>
       </c>
       <c r="M8">
-        <v>17.55317028829227</v>
+        <v>15.96491955848237</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.37050768809832</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.97723557877064</v>
+        <v>6.768517705834082</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.925972959684396</v>
+        <v>5.432727892925074</v>
       </c>
       <c r="E9">
-        <v>58.95722690288066</v>
+        <v>9.283519924506079</v>
       </c>
       <c r="F9">
-        <v>73.68375844185331</v>
+        <v>31.26172864199137</v>
       </c>
       <c r="G9">
-        <v>1.847796353979508</v>
+        <v>40.29098885381297</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.928137065449936</v>
       </c>
       <c r="I9">
-        <v>10.90618372874811</v>
+        <v>3.739079046747049</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.58303603327932</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.05383418504068</v>
       </c>
       <c r="L9">
-        <v>17.27730599670355</v>
+        <v>6.62175353969575</v>
       </c>
       <c r="M9">
-        <v>20.73234896573233</v>
+        <v>18.3374448613048</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.04347872412236</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.37542405084567</v>
+        <v>7.246742965117396</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.49419512702221</v>
+        <v>5.728772092017373</v>
       </c>
       <c r="E10">
-        <v>66.26779706953781</v>
+        <v>9.661523236858669</v>
       </c>
       <c r="F10">
-        <v>84.15628597611824</v>
+        <v>32.36871226447634</v>
       </c>
       <c r="G10">
-        <v>1.778965515228728</v>
+        <v>41.98345477219831</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.642919824788877</v>
       </c>
       <c r="I10">
-        <v>8.998818616026636</v>
+        <v>3.543666261863337</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.76247117742463</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.719065662379</v>
       </c>
       <c r="L10">
-        <v>19.35963041962042</v>
+        <v>6.770484650707416</v>
       </c>
       <c r="M10">
-        <v>23.03410113560216</v>
+        <v>19.92101837842394</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.08410337221699</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.46844700929605</v>
+        <v>7.717687488052547</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.29144999653473</v>
+        <v>5.480455386807185</v>
       </c>
       <c r="E11">
-        <v>69.85607694339191</v>
+        <v>8.65495896462242</v>
       </c>
       <c r="F11">
-        <v>89.39943492849309</v>
+        <v>30.44491811362677</v>
       </c>
       <c r="G11">
-        <v>1.743051650589495</v>
+        <v>39.30322166098366</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.662377897756929</v>
       </c>
       <c r="I11">
-        <v>8.152679786277361</v>
+        <v>3.499574646777903</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.14358557849887</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.98178599162018</v>
       </c>
       <c r="L11">
-        <v>20.35620251380071</v>
+        <v>6.343174881012706</v>
       </c>
       <c r="M11">
-        <v>24.11196059059269</v>
+        <v>20.50903358969678</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.644461173619</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.8870861411114</v>
+        <v>8.063052744311412</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.61448558173133</v>
+        <v>5.204766526769373</v>
       </c>
       <c r="E12">
-        <v>71.28757845505247</v>
+        <v>7.882831073811617</v>
       </c>
       <c r="F12">
-        <v>91.50702780328589</v>
+        <v>28.62881172326914</v>
       </c>
       <c r="G12">
-        <v>1.728328777916216</v>
+        <v>36.75228636747592</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.050747317174118</v>
       </c>
       <c r="I12">
-        <v>7.842934603764126</v>
+        <v>3.485819618718589</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.60216439931016</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.54445708963832</v>
       </c>
       <c r="L12">
-        <v>20.74826341752849</v>
+        <v>6.080203020668986</v>
       </c>
       <c r="M12">
-        <v>24.53111549522974</v>
+        <v>20.65105700146813</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.02344798385034</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.79660137753596</v>
+        <v>8.303099205912224</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.54373985347974</v>
+        <v>4.89539728898662</v>
       </c>
       <c r="E13">
-        <v>70.97514265049242</v>
+        <v>7.277889990536278</v>
       </c>
       <c r="F13">
-        <v>91.04631764894442</v>
+        <v>26.69838466615317</v>
       </c>
       <c r="G13">
-        <v>1.731561434503008</v>
+        <v>33.98837419788364</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.512661380380938</v>
       </c>
       <c r="I13">
-        <v>7.908926035332326</v>
+        <v>3.507961044730926</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.06299417237808</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.27150469983497</v>
       </c>
       <c r="L13">
-        <v>20.66297842663761</v>
+        <v>5.935495907303017</v>
       </c>
       <c r="M13">
-        <v>24.44018590658778</v>
+        <v>20.49521747593984</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.23048767122858</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.50275502276068</v>
+        <v>8.41895950249649</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.31752230254095</v>
+        <v>4.664763972535548</v>
       </c>
       <c r="E14">
-        <v>69.97208029949419</v>
+        <v>6.983869726990907</v>
       </c>
       <c r="F14">
-        <v>89.56990928807099</v>
+        <v>25.28055017778548</v>
       </c>
       <c r="G14">
-        <v>1.741866978733528</v>
+        <v>31.92191116572931</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.541240003720677</v>
       </c>
       <c r="I14">
-        <v>8.126900942974887</v>
+        <v>3.542177242880717</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.68535046632999</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.16364153870895</v>
       </c>
       <c r="L14">
-        <v>20.38809644991962</v>
+        <v>5.910540862236522</v>
       </c>
       <c r="M14">
-        <v>24.14616659580581</v>
+        <v>20.25604122116094</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.59170380280259</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.32357490627715</v>
+        <v>8.414156275482803</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.18210883188395</v>
+        <v>4.602296490929776</v>
       </c>
       <c r="E15">
-        <v>69.3686811426393</v>
+        <v>6.925793020402184</v>
       </c>
       <c r="F15">
-        <v>88.68380759063531</v>
+        <v>24.8989384241934</v>
       </c>
       <c r="G15">
-        <v>1.748012925369745</v>
+        <v>31.34994456097636</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.781185430729961</v>
       </c>
       <c r="I15">
-        <v>8.262206389893143</v>
+        <v>3.562375601231651</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.58995931829717</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.15948884334902</v>
       </c>
       <c r="L15">
-        <v>20.22196728212161</v>
+        <v>5.911408225962701</v>
       </c>
       <c r="M15">
-        <v>23.96778978583735</v>
+        <v>20.14137675247362</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.40437757621282</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.3043421954614</v>
+        <v>8.167660422801145</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.4444040719962</v>
+        <v>4.528204744001068</v>
       </c>
       <c r="E16">
-        <v>66.04098042751625</v>
+        <v>6.854847326087948</v>
       </c>
       <c r="F16">
-        <v>83.82694103884512</v>
+        <v>24.73194635257429</v>
       </c>
       <c r="G16">
-        <v>1.781188178768173</v>
+        <v>31.02058479239935</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.593293790789735</v>
       </c>
       <c r="I16">
-        <v>9.054995590001987</v>
+        <v>3.646250387763706</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.60865104003061</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.34616312961914</v>
       </c>
       <c r="L16">
-        <v>19.29601833911512</v>
+        <v>5.867992444867035</v>
       </c>
       <c r="M16">
-        <v>22.96473372839719</v>
+        <v>19.52871324145888</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.09076574212739</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.68187381175553</v>
+        <v>7.908880519258984</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.01788766713532</v>
+        <v>4.596659521333878</v>
       </c>
       <c r="E17">
-        <v>64.08436694855052</v>
+        <v>6.93179459321775</v>
       </c>
       <c r="F17">
-        <v>80.99695760553374</v>
+        <v>25.3690196382815</v>
       </c>
       <c r="G17">
-        <v>1.800128645995895</v>
+        <v>31.8949678139405</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.875752449118203</v>
       </c>
       <c r="I17">
-        <v>9.549785239187104</v>
+        <v>3.693223106912528</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.82319687132336</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.53777381750984</v>
       </c>
       <c r="L17">
-        <v>18.74445027988342</v>
+        <v>5.834358977157788</v>
       </c>
       <c r="M17">
-        <v>22.36060510786238</v>
+        <v>19.18293696533861</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.20286495724189</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.32367341609821</v>
+        <v>7.637485016785875</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.77970037391004</v>
+        <v>4.797455048342789</v>
       </c>
       <c r="E18">
-        <v>62.98077241428965</v>
+        <v>7.286880379753756</v>
       </c>
       <c r="F18">
-        <v>79.40986896365196</v>
+        <v>26.80600294474417</v>
       </c>
       <c r="G18">
-        <v>1.810628068103931</v>
+        <v>33.95677926747362</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.645254522736745</v>
       </c>
       <c r="I18">
-        <v>9.835700804990259</v>
+        <v>3.703400036903585</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.24428386933814</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.80832147840955</v>
       </c>
       <c r="L18">
-        <v>18.43121116732816</v>
+        <v>5.882327063398924</v>
       </c>
       <c r="M18">
-        <v>22.01547624634762</v>
+        <v>19.01785960485985</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.68202311757917</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.2022741558141</v>
+        <v>7.333912515145956</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.70010111263558</v>
+        <v>5.105852871351772</v>
       </c>
       <c r="E19">
-        <v>62.61017224235506</v>
+        <v>8.01051765229605</v>
       </c>
       <c r="F19">
-        <v>78.87843903788274</v>
+        <v>28.71359661810495</v>
       </c>
       <c r="G19">
-        <v>1.814124319184496</v>
+        <v>36.68389044436964</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.18637475358425</v>
       </c>
       <c r="I19">
-        <v>9.932631405062873</v>
+        <v>3.698881203522933</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.78216295311168</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.15152333611115</v>
       </c>
       <c r="L19">
-        <v>18.32569172029271</v>
+        <v>6.099053496059134</v>
       </c>
       <c r="M19">
-        <v>21.89889462120817</v>
+        <v>19.05520456845526</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.43822916746492</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.74813211992041</v>
+        <v>7.05023034876337</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.0625077085107</v>
+        <v>5.66853762319615</v>
       </c>
       <c r="E20">
-        <v>64.29022255085593</v>
+        <v>9.555110207801485</v>
       </c>
       <c r="F20">
-        <v>81.29374276549748</v>
+        <v>31.9442758491543</v>
       </c>
       <c r="G20">
-        <v>1.798155542706925</v>
+        <v>41.31168580432637</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.614419088982823</v>
       </c>
       <c r="I20">
-        <v>9.496949214075368</v>
+        <v>3.621688954439634</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.66605898261959</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.71379412963245</v>
       </c>
       <c r="L20">
-        <v>18.80271283973553</v>
+        <v>6.72192931024334</v>
       </c>
       <c r="M20">
-        <v>22.42463950463433</v>
+        <v>19.5806470356192</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.85717929259932</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.5888823324933</v>
+        <v>7.362424779429739</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.38328230708708</v>
+        <v>5.95571757428081</v>
       </c>
       <c r="E21">
-        <v>70.2642993258649</v>
+        <v>10.06361846682956</v>
       </c>
       <c r="F21">
-        <v>89.99959619638639</v>
+        <v>33.24204501538533</v>
       </c>
       <c r="G21">
-        <v>1.738876148821346</v>
+        <v>43.25080510402624</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.875195244784837</v>
       </c>
       <c r="I21">
-        <v>8.062472595369719</v>
+        <v>3.465381685745857</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.94226659412831</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.5816517671355</v>
       </c>
       <c r="L21">
-        <v>20.46834436620706</v>
+        <v>6.936931838639417</v>
       </c>
       <c r="M21">
-        <v>24.2321483911326</v>
+        <v>20.75381874257002</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>16.77991105348637</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.82536657447594</v>
+        <v>7.602488881905228</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.38199043813985</v>
+        <v>6.108929721068482</v>
       </c>
       <c r="E22">
-        <v>74.63999945226925</v>
+        <v>10.31442500729888</v>
       </c>
       <c r="F22">
-        <v>96.47308883819619</v>
+        <v>33.99121889687233</v>
       </c>
       <c r="G22">
-        <v>1.692964818031587</v>
+        <v>44.38959157476668</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.093870216637712</v>
       </c>
       <c r="I22">
-        <v>7.201978994736388</v>
+        <v>3.356025235033702</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.10334326437031</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.4983645012164</v>
       </c>
       <c r="L22">
-        <v>21.65268685665086</v>
+        <v>7.044107679138024</v>
       </c>
       <c r="M22">
-        <v>25.48631774691797</v>
+        <v>21.46042113441679</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>17.29366715339791</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.1596356947319</v>
+        <v>7.503093339150987</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.8308459264972</v>
+        <v>6.020820529715778</v>
       </c>
       <c r="E23">
-        <v>72.23944627737102</v>
+        <v>10.18185354074073</v>
       </c>
       <c r="F23">
-        <v>92.91296787552183</v>
+        <v>33.63618537632136</v>
       </c>
       <c r="G23">
-        <v>1.718413765776296</v>
+        <v>43.85891231458371</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.977730859503162</v>
       </c>
       <c r="I23">
-        <v>7.6479317087716</v>
+        <v>3.403491530364468</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.03352424555978</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.57735026371133</v>
       </c>
       <c r="L23">
-        <v>21.0070797731116</v>
+        <v>6.989735690037592</v>
       </c>
       <c r="M23">
-        <v>24.80618677208227</v>
+        <v>21.06240309696708</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.00473670315206</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.71817805594558</v>
+        <v>7.061416226563871</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.04231366756752</v>
+        <v>5.689734992028978</v>
       </c>
       <c r="E24">
-        <v>64.19709105412855</v>
+        <v>9.665853709373676</v>
       </c>
       <c r="F24">
-        <v>81.15944514997345</v>
+        <v>32.2130470773148</v>
       </c>
       <c r="G24">
-        <v>1.799048768332737</v>
+        <v>41.71270939442689</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.591601533556692</v>
       </c>
       <c r="I24">
-        <v>9.520832237947229</v>
+        <v>3.604877963442338</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.75039104300675</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.82218918594118</v>
       </c>
       <c r="L24">
-        <v>18.77636076391621</v>
+        <v>6.775457616748823</v>
       </c>
       <c r="M24">
-        <v>22.39568312697544</v>
+        <v>19.535229653854</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.90077107694574</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.0785659702055</v>
+        <v>6.541557647304767</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.388244656997143</v>
+        <v>5.315563973882</v>
       </c>
       <c r="E25">
-        <v>56.36496409400407</v>
+        <v>9.082047280933901</v>
       </c>
       <c r="F25">
-        <v>70.04857382765064</v>
+        <v>30.66727675920666</v>
       </c>
       <c r="G25">
-        <v>1.870830478663406</v>
+        <v>39.37444277492775</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.1034911387412</v>
       </c>
       <c r="I25">
-        <v>11.60914274446273</v>
+        <v>3.831951808929213</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.4617908925907</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.09255593017548</v>
       </c>
       <c r="L25">
-        <v>16.52494905539108</v>
+        <v>6.535446760612057</v>
       </c>
       <c r="M25">
-        <v>19.88661551163247</v>
+        <v>17.76412879828427</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>14.63479745100024</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.201209673661976</v>
+        <v>6.41828233606177</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.00694780263624</v>
+        <v>5.094622754350285</v>
       </c>
       <c r="E2">
-        <v>8.631152726177522</v>
+        <v>8.643307888042596</v>
       </c>
       <c r="F2">
-        <v>29.64743947134957</v>
+        <v>29.1561587296944</v>
       </c>
       <c r="G2">
-        <v>37.85513243743709</v>
+        <v>36.67997768592898</v>
       </c>
       <c r="H2">
-        <v>2.495938234288242</v>
+        <v>2.444477458057135</v>
       </c>
       <c r="I2">
-        <v>3.983261827975579</v>
+        <v>3.628829546948721</v>
       </c>
       <c r="J2">
-        <v>12.30643334605314</v>
+        <v>12.36182344544236</v>
       </c>
       <c r="K2">
-        <v>16.38273741946447</v>
+        <v>15.2827428341158</v>
       </c>
       <c r="L2">
-        <v>6.358065203304706</v>
+        <v>12.05748915555189</v>
       </c>
       <c r="M2">
-        <v>16.28181023232868</v>
+        <v>10.47605321161399</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.334665257977387</v>
       </c>
       <c r="O2">
-        <v>13.59181841861623</v>
+        <v>16.43679418229961</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.82349170863586</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.905362032078076</v>
+        <v>6.222314973271414</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.799854835375609</v>
+        <v>4.881313047901338</v>
       </c>
       <c r="E3">
-        <v>8.310395926941876</v>
+        <v>8.334441554469301</v>
       </c>
       <c r="F3">
-        <v>28.88847312731179</v>
+        <v>28.47032869962954</v>
       </c>
       <c r="G3">
-        <v>36.70405214020633</v>
+        <v>35.70855343437319</v>
       </c>
       <c r="H3">
-        <v>2.773282453594303</v>
+        <v>2.712305940016758</v>
       </c>
       <c r="I3">
-        <v>4.104904718948539</v>
+        <v>3.729379244476439</v>
       </c>
       <c r="J3">
-        <v>12.18507640466576</v>
+        <v>12.21485021790797</v>
       </c>
       <c r="K3">
-        <v>16.53354596438688</v>
+        <v>15.46136245250543</v>
       </c>
       <c r="L3">
-        <v>6.228996107117523</v>
+        <v>12.23787520972063</v>
       </c>
       <c r="M3">
-        <v>15.24659037455649</v>
+        <v>10.61120059371837</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.215149129766771</v>
       </c>
       <c r="O3">
-        <v>12.87340088767172</v>
+        <v>15.34982567480329</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.07533121495968</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.711680751417185</v>
+        <v>6.094369476901594</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.669158159436937</v>
+        <v>4.746811229193026</v>
       </c>
       <c r="E4">
-        <v>8.106658419247143</v>
+        <v>8.138418716652993</v>
       </c>
       <c r="F4">
-        <v>28.42133725316884</v>
+        <v>28.04814073506023</v>
       </c>
       <c r="G4">
-        <v>35.99353982627382</v>
+        <v>35.11563711289826</v>
       </c>
       <c r="H4">
-        <v>2.949198891064954</v>
+        <v>2.882229066540869</v>
       </c>
       <c r="I4">
-        <v>4.182746669771509</v>
+        <v>3.794048693885469</v>
       </c>
       <c r="J4">
-        <v>12.11376743665664</v>
+        <v>12.12460519611352</v>
       </c>
       <c r="K4">
-        <v>16.62625819683364</v>
+        <v>15.57085916862008</v>
       </c>
       <c r="L4">
-        <v>6.147203627422225</v>
+        <v>12.35245904807365</v>
       </c>
       <c r="M4">
-        <v>14.5785899220118</v>
+        <v>10.70349953396964</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.139391323419076</v>
       </c>
       <c r="O4">
-        <v>12.41547676917257</v>
+        <v>14.64739653366269</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.59809224830999</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.62081106278839</v>
+        <v>6.033387538219698</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.617216468634876</v>
+        <v>4.69301737974616</v>
       </c>
       <c r="E5">
-        <v>8.021719154829455</v>
+        <v>8.056770300146997</v>
       </c>
       <c r="F5">
-        <v>28.21725501198638</v>
+        <v>27.86429656270233</v>
       </c>
       <c r="G5">
-        <v>35.67929376369566</v>
+        <v>34.85444465161576</v>
       </c>
       <c r="H5">
-        <v>3.022438070870439</v>
+        <v>2.952969244678485</v>
       </c>
       <c r="I5">
-        <v>4.217862739847117</v>
+        <v>3.824181431307461</v>
       </c>
       <c r="J5">
-        <v>12.08082880183182</v>
+        <v>12.08381377340174</v>
       </c>
       <c r="K5">
-        <v>16.65493179674915</v>
+        <v>15.60801173925038</v>
       </c>
       <c r="L5">
-        <v>6.112444558564993</v>
+        <v>12.39205832845402</v>
       </c>
       <c r="M5">
-        <v>14.30657665973703</v>
+        <v>10.74027492412921</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.107254088108411</v>
       </c>
       <c r="O5">
-        <v>12.23043672758494</v>
+        <v>14.35959007333361</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.40409701868137</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.594571073715183</v>
+        <v>6.01464459540666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.611197203519738</v>
+        <v>4.686305510260127</v>
       </c>
       <c r="E6">
-        <v>8.007219263329402</v>
+        <v>8.042873458374888</v>
       </c>
       <c r="F6">
-        <v>28.1667034899994</v>
+        <v>27.81950658715053</v>
       </c>
       <c r="G6">
-        <v>35.5976309211715</v>
+        <v>34.78591470366572</v>
       </c>
       <c r="H6">
-        <v>3.034817248532381</v>
+        <v>2.964910743387783</v>
       </c>
       <c r="I6">
-        <v>4.227039760884978</v>
+        <v>3.833113334333305</v>
       </c>
       <c r="J6">
-        <v>12.06968984983785</v>
+        <v>12.07211887208814</v>
       </c>
       <c r="K6">
-        <v>16.64856531801989</v>
+        <v>15.60513575708697</v>
       </c>
       <c r="L6">
-        <v>6.105667937605197</v>
+        <v>12.38892013349075</v>
       </c>
       <c r="M6">
-        <v>14.27111926980086</v>
+        <v>10.74266285029342</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.101063691352051</v>
       </c>
       <c r="O6">
-        <v>12.20637657599832</v>
+        <v>14.32012414520633</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.37750885563504</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.680909654855441</v>
+        <v>6.076665174231181</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.675601080776848</v>
+        <v>4.75896703174885</v>
       </c>
       <c r="E7">
-        <v>8.104726264624258</v>
+        <v>8.138998139821478</v>
       </c>
       <c r="F7">
-        <v>28.37353641410084</v>
+        <v>27.97612426864167</v>
       </c>
       <c r="G7">
-        <v>35.90979092403658</v>
+        <v>35.10131125023783</v>
       </c>
       <c r="H7">
-        <v>2.950525827865248</v>
+        <v>2.884415476537218</v>
       </c>
       <c r="I7">
-        <v>4.191926674870617</v>
+        <v>3.805013078623787</v>
       </c>
       <c r="J7">
-        <v>12.09779378266956</v>
+        <v>12.05600106345812</v>
       </c>
       <c r="K7">
-        <v>16.59626041008583</v>
+        <v>15.54036499786247</v>
       </c>
       <c r="L7">
-        <v>6.144125359384585</v>
+        <v>12.32059193866461</v>
       </c>
       <c r="M7">
-        <v>14.60217546369092</v>
+        <v>10.68958743694196</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.135913085495591</v>
       </c>
       <c r="O7">
-        <v>12.4314818140854</v>
+        <v>14.6594014411608</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.60884567189597</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.064562632671763</v>
+        <v>6.342679077617584</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.945254256929808</v>
+        <v>5.051040752969016</v>
       </c>
       <c r="E8">
-        <v>8.521001721769936</v>
+        <v>8.544920108297228</v>
       </c>
       <c r="F8">
-        <v>29.3286596458586</v>
+        <v>28.77130163586678</v>
       </c>
       <c r="G8">
-        <v>37.35837575260584</v>
+        <v>36.4437388940224</v>
       </c>
       <c r="H8">
-        <v>2.590831753949324</v>
+        <v>2.538992614160775</v>
       </c>
       <c r="I8">
-        <v>4.035477978648268</v>
+        <v>3.676755101441323</v>
       </c>
       <c r="J8">
-        <v>12.2438002371649</v>
+        <v>12.11601908001169</v>
       </c>
       <c r="K8">
-        <v>16.39483158426254</v>
+        <v>15.2925748203848</v>
       </c>
       <c r="L8">
-        <v>6.31075781423454</v>
+        <v>12.06989765207956</v>
       </c>
       <c r="M8">
-        <v>15.96491955848237</v>
+        <v>10.49101328460349</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.2885244668169</v>
       </c>
       <c r="O8">
-        <v>13.37050768809832</v>
+        <v>16.07429551479873</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.58125368658266</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.768517705834082</v>
+        <v>6.818977688958487</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.432727892925074</v>
+        <v>5.558693023213623</v>
       </c>
       <c r="E9">
-        <v>9.283519924506079</v>
+        <v>9.2813911276182</v>
       </c>
       <c r="F9">
-        <v>31.26172864199137</v>
+        <v>30.49660244775893</v>
       </c>
       <c r="G9">
-        <v>40.29098885381297</v>
+        <v>38.99954081600613</v>
       </c>
       <c r="H9">
-        <v>1.928137065449936</v>
+        <v>1.899864449484694</v>
       </c>
       <c r="I9">
-        <v>3.739079046747049</v>
+        <v>3.430388176341569</v>
       </c>
       <c r="J9">
-        <v>12.58303603327932</v>
+        <v>12.45503855187013</v>
       </c>
       <c r="K9">
-        <v>16.05383418504068</v>
+        <v>14.86943115654476</v>
       </c>
       <c r="L9">
-        <v>6.62175353969575</v>
+        <v>11.67225513594471</v>
       </c>
       <c r="M9">
-        <v>18.3374448613048</v>
+        <v>10.21190766111087</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.575762852285369</v>
       </c>
       <c r="O9">
-        <v>15.04347872412236</v>
+        <v>18.56214084936316</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.32386605257168</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.246742965117396</v>
+        <v>7.195614664537529</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.728772092017373</v>
+        <v>5.898026560714554</v>
       </c>
       <c r="E10">
-        <v>9.661523236858669</v>
+        <v>9.654326276120319</v>
       </c>
       <c r="F10">
-        <v>32.36871226447634</v>
+        <v>31.32219587367385</v>
       </c>
       <c r="G10">
-        <v>41.98345477219831</v>
+        <v>40.79664975996777</v>
       </c>
       <c r="H10">
-        <v>1.642919824788877</v>
+        <v>1.650198064298028</v>
       </c>
       <c r="I10">
-        <v>3.543666261863337</v>
+        <v>3.272828762996463</v>
       </c>
       <c r="J10">
-        <v>12.76247117742463</v>
+        <v>12.3344381821917</v>
       </c>
       <c r="K10">
-        <v>15.719065662379</v>
+        <v>14.46916385172884</v>
       </c>
       <c r="L10">
-        <v>6.770484650707416</v>
+        <v>11.34091597382242</v>
       </c>
       <c r="M10">
-        <v>19.92101837842394</v>
+        <v>9.979400611180195</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.706431570108952</v>
       </c>
       <c r="O10">
-        <v>16.08410337221699</v>
+        <v>20.17079529021059</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.38950395621123</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.717687488052547</v>
+        <v>7.773195765474116</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.480455386807185</v>
+        <v>5.690244444964397</v>
       </c>
       <c r="E11">
-        <v>8.65495896462242</v>
+        <v>8.659280739003449</v>
       </c>
       <c r="F11">
-        <v>30.44491811362677</v>
+        <v>29.20335378717085</v>
       </c>
       <c r="G11">
-        <v>39.30322166098366</v>
+        <v>38.98856919181799</v>
       </c>
       <c r="H11">
-        <v>2.662377897756929</v>
+        <v>2.659212374994215</v>
       </c>
       <c r="I11">
-        <v>3.499574646777903</v>
+        <v>3.24629534754696</v>
       </c>
       <c r="J11">
-        <v>12.14358557849887</v>
+        <v>11.20467472668287</v>
       </c>
       <c r="K11">
-        <v>14.98178599162018</v>
+        <v>13.88258801670506</v>
       </c>
       <c r="L11">
-        <v>6.343174881012706</v>
+        <v>10.94793614545929</v>
       </c>
       <c r="M11">
-        <v>20.50903358969678</v>
+        <v>9.513406476028846</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.28450710282677</v>
       </c>
       <c r="O11">
-        <v>15.644461173619</v>
+        <v>20.6152755480667</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.8746402588536</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.063052744311412</v>
+        <v>8.208904917755417</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.204766526769373</v>
+        <v>5.417558500310276</v>
       </c>
       <c r="E12">
-        <v>7.882831073811617</v>
+        <v>7.88111765683255</v>
       </c>
       <c r="F12">
-        <v>28.62881172326914</v>
+        <v>27.37486401807305</v>
       </c>
       <c r="G12">
-        <v>36.75228636747592</v>
+        <v>36.94798086671528</v>
       </c>
       <c r="H12">
-        <v>4.050747317174118</v>
+        <v>4.054306231887512</v>
       </c>
       <c r="I12">
-        <v>3.485819618718589</v>
+        <v>3.235992247242699</v>
       </c>
       <c r="J12">
-        <v>11.60216439931016</v>
+        <v>10.50499038911333</v>
       </c>
       <c r="K12">
-        <v>14.54445708963832</v>
+        <v>13.58413219333392</v>
       </c>
       <c r="L12">
-        <v>6.080203020668986</v>
+        <v>10.77736277066674</v>
       </c>
       <c r="M12">
-        <v>20.65105700146813</v>
+        <v>9.244288180732473</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.030985378864952</v>
       </c>
       <c r="O12">
-        <v>15.02344798385034</v>
+        <v>20.65524687157633</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.19518816804061</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.303099205912224</v>
+        <v>8.521702240214529</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.89539728898662</v>
+        <v>5.070602111115537</v>
       </c>
       <c r="E13">
-        <v>7.277889990536278</v>
+        <v>7.259426618965701</v>
       </c>
       <c r="F13">
-        <v>26.69838466615317</v>
+        <v>25.64424982409674</v>
       </c>
       <c r="G13">
-        <v>33.98837419788364</v>
+        <v>34.33494255531768</v>
       </c>
       <c r="H13">
-        <v>5.512661380380938</v>
+        <v>5.514405547970657</v>
       </c>
       <c r="I13">
-        <v>3.507961044730926</v>
+        <v>3.253229614176859</v>
       </c>
       <c r="J13">
-        <v>11.06299417237808</v>
+        <v>10.14565867817013</v>
       </c>
       <c r="K13">
-        <v>14.27150469983497</v>
+        <v>13.44655156250726</v>
       </c>
       <c r="L13">
-        <v>5.935495907303017</v>
+        <v>10.70973396207519</v>
       </c>
       <c r="M13">
-        <v>20.49521747593984</v>
+        <v>9.097564935731729</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.899275088969268</v>
       </c>
       <c r="O13">
-        <v>14.23048767122858</v>
+        <v>20.43081668240763</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.35319609963898</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.41895950249649</v>
+        <v>8.682099296394837</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.664763972535548</v>
+        <v>4.798026526274932</v>
       </c>
       <c r="E14">
-        <v>6.983869726990907</v>
+        <v>6.954544802887252</v>
       </c>
       <c r="F14">
-        <v>25.28055017778548</v>
+        <v>24.45721131000288</v>
       </c>
       <c r="G14">
-        <v>31.92191116572931</v>
+        <v>32.2215895057769</v>
       </c>
       <c r="H14">
-        <v>6.541240003720677</v>
+        <v>6.541284484625215</v>
       </c>
       <c r="I14">
-        <v>3.542177242880717</v>
+        <v>3.280910231036179</v>
       </c>
       <c r="J14">
-        <v>10.68535046632999</v>
+        <v>10.02253039162538</v>
       </c>
       <c r="K14">
-        <v>14.16364153870895</v>
+        <v>13.41729213064075</v>
       </c>
       <c r="L14">
-        <v>5.910540862236522</v>
+        <v>10.69761673422649</v>
       </c>
       <c r="M14">
-        <v>20.25604122116094</v>
+        <v>9.053483461866236</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.883314239514899</v>
       </c>
       <c r="O14">
-        <v>13.59170380280259</v>
+        <v>20.15621125416946</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.68283469298369</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.414156275482803</v>
+        <v>8.686271168300795</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.602296490929776</v>
+        <v>4.718926810894417</v>
       </c>
       <c r="E15">
-        <v>6.925793020402184</v>
+        <v>6.895471660346559</v>
       </c>
       <c r="F15">
-        <v>24.8989384241934</v>
+        <v>24.17135442109186</v>
       </c>
       <c r="G15">
-        <v>31.34994456097636</v>
+        <v>31.57742478065029</v>
       </c>
       <c r="H15">
-        <v>6.781185430729961</v>
+        <v>6.780463886498217</v>
       </c>
       <c r="I15">
-        <v>3.562375601231651</v>
+        <v>3.298525845664022</v>
       </c>
       <c r="J15">
-        <v>10.58995931829717</v>
+        <v>10.04277179776333</v>
       </c>
       <c r="K15">
-        <v>14.15948884334902</v>
+        <v>13.43030910818046</v>
       </c>
       <c r="L15">
-        <v>5.911408225962701</v>
+        <v>10.70287695543466</v>
       </c>
       <c r="M15">
-        <v>20.14137675247362</v>
+        <v>9.061511026350061</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.886827443323267</v>
       </c>
       <c r="O15">
-        <v>13.40437757621282</v>
+        <v>20.03773632935729</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.48844205800954</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.167660422801145</v>
+        <v>8.414889287215653</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.528204744001068</v>
+        <v>4.592724249810184</v>
       </c>
       <c r="E16">
-        <v>6.854847326087948</v>
+        <v>6.835712741140222</v>
       </c>
       <c r="F16">
-        <v>24.73194635257429</v>
+        <v>24.31607566028813</v>
       </c>
       <c r="G16">
-        <v>31.02058479239935</v>
+        <v>30.7318616416076</v>
       </c>
       <c r="H16">
-        <v>6.593293790789735</v>
+        <v>6.588317985089133</v>
       </c>
       <c r="I16">
-        <v>3.646250387763706</v>
+        <v>3.366394456094806</v>
       </c>
       <c r="J16">
-        <v>10.60865104003061</v>
+        <v>10.51247293718344</v>
       </c>
       <c r="K16">
-        <v>14.34616312961914</v>
+        <v>13.61279220709607</v>
       </c>
       <c r="L16">
-        <v>5.867992444867035</v>
+        <v>10.77901516919778</v>
       </c>
       <c r="M16">
-        <v>19.52871324145888</v>
+        <v>9.230727424492102</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.850707483143013</v>
       </c>
       <c r="O16">
-        <v>13.09076574212739</v>
+        <v>19.47480458859644</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.18679857223677</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.908880519258984</v>
+        <v>8.123395359052871</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.596659521333878</v>
+        <v>4.647673841875574</v>
       </c>
       <c r="E17">
-        <v>6.93179459321775</v>
+        <v>6.919793636641247</v>
       </c>
       <c r="F17">
-        <v>25.3690196382815</v>
+        <v>25.03522666232821</v>
       </c>
       <c r="G17">
-        <v>31.8949678139405</v>
+        <v>31.31272249908295</v>
       </c>
       <c r="H17">
-        <v>5.875752449118203</v>
+        <v>5.867524475734144</v>
       </c>
       <c r="I17">
-        <v>3.693223106912528</v>
+        <v>3.404879660010306</v>
       </c>
       <c r="J17">
-        <v>10.82319687132336</v>
+        <v>10.89856079979052</v>
       </c>
       <c r="K17">
-        <v>14.53777381750984</v>
+        <v>13.77376577972018</v>
       </c>
       <c r="L17">
-        <v>5.834358977157788</v>
+        <v>10.86345618201701</v>
       </c>
       <c r="M17">
-        <v>19.18293696533861</v>
+        <v>9.375287869816171</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.818934405883592</v>
       </c>
       <c r="O17">
-        <v>13.20286495724189</v>
+        <v>19.17819203726314</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.32270541745512</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.637485016785875</v>
+        <v>7.79339711531406</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.797455048342789</v>
+        <v>4.856210079342038</v>
       </c>
       <c r="E18">
-        <v>7.286880379753756</v>
+        <v>7.277026776593631</v>
       </c>
       <c r="F18">
-        <v>26.80600294474417</v>
+        <v>26.41855311740041</v>
       </c>
       <c r="G18">
-        <v>33.95677926747362</v>
+        <v>33.10819085916732</v>
       </c>
       <c r="H18">
-        <v>4.645254522736745</v>
+        <v>4.633682946039438</v>
       </c>
       <c r="I18">
-        <v>3.703400036903585</v>
+        <v>3.410087794488232</v>
       </c>
       <c r="J18">
-        <v>11.24428386933814</v>
+        <v>11.35834516667508</v>
       </c>
       <c r="K18">
-        <v>14.80832147840955</v>
+        <v>13.97458064264841</v>
       </c>
       <c r="L18">
-        <v>5.882327063398924</v>
+        <v>10.99423668575345</v>
       </c>
       <c r="M18">
-        <v>19.01785960485985</v>
+        <v>9.542525222047164</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.863266758536606</v>
       </c>
       <c r="O18">
-        <v>13.68202311757917</v>
+        <v>19.08258762762294</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.84498946984063</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.333912515145956</v>
+        <v>7.420557499856562</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.105852871351772</v>
+        <v>5.184326454038894</v>
       </c>
       <c r="E19">
-        <v>8.01051765229605</v>
+        <v>7.999204016874558</v>
       </c>
       <c r="F19">
-        <v>28.71359661810495</v>
+        <v>28.19854352642997</v>
       </c>
       <c r="G19">
-        <v>36.68389044436964</v>
+        <v>35.57686825340118</v>
       </c>
       <c r="H19">
-        <v>3.18637475358425</v>
+        <v>3.170680047194847</v>
       </c>
       <c r="I19">
-        <v>3.698881203522933</v>
+        <v>3.407707256745717</v>
       </c>
       <c r="J19">
-        <v>11.78216295311168</v>
+        <v>11.86538356252915</v>
       </c>
       <c r="K19">
-        <v>15.15152333611115</v>
+        <v>14.20857131472796</v>
       </c>
       <c r="L19">
-        <v>6.099053496059134</v>
+        <v>11.16192905754251</v>
       </c>
       <c r="M19">
-        <v>19.05520456845526</v>
+        <v>9.729499321926934</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.070037229934145</v>
       </c>
       <c r="O19">
-        <v>14.43822916746492</v>
+        <v>19.19911173720575</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.65399944070203</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.05023034876337</v>
+        <v>7.0202106335373</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.66853762319615</v>
+        <v>5.803279383061229</v>
       </c>
       <c r="E20">
-        <v>9.555110207801485</v>
+        <v>9.542101217511352</v>
       </c>
       <c r="F20">
-        <v>31.9442758491543</v>
+        <v>31.08818692584063</v>
       </c>
       <c r="G20">
-        <v>41.31168580432637</v>
+        <v>39.94257140906006</v>
       </c>
       <c r="H20">
-        <v>1.614419088982823</v>
+        <v>1.598649730076743</v>
       </c>
       <c r="I20">
-        <v>3.621688954439634</v>
+        <v>3.345490536972737</v>
       </c>
       <c r="J20">
-        <v>12.66605898261959</v>
+        <v>12.50680585328992</v>
       </c>
       <c r="K20">
-        <v>15.71379412963245</v>
+        <v>14.52754543020733</v>
       </c>
       <c r="L20">
-        <v>6.72192931024334</v>
+        <v>11.39086212256538</v>
       </c>
       <c r="M20">
-        <v>19.5806470356192</v>
+        <v>10.00104162941639</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.666207027548799</v>
       </c>
       <c r="O20">
-        <v>15.85717929259932</v>
+        <v>19.83669224547799</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.15637175617359</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.362424779429739</v>
+        <v>7.342920985662314</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.95571757428081</v>
+        <v>6.236922028660617</v>
       </c>
       <c r="E21">
-        <v>10.06361846682956</v>
+        <v>10.08747839568451</v>
       </c>
       <c r="F21">
-        <v>33.24204501538533</v>
+        <v>31.6271355983936</v>
       </c>
       <c r="G21">
-        <v>43.25080510402624</v>
+        <v>42.87624629426104</v>
       </c>
       <c r="H21">
-        <v>1.875195244784837</v>
+        <v>1.861415279053597</v>
       </c>
       <c r="I21">
-        <v>3.465381685745857</v>
+        <v>3.222539415836967</v>
       </c>
       <c r="J21">
-        <v>12.94226659412831</v>
+        <v>11.606976850787</v>
       </c>
       <c r="K21">
-        <v>15.5816517671355</v>
+        <v>14.20274541945088</v>
       </c>
       <c r="L21">
-        <v>6.936931838639417</v>
+        <v>11.14650246391914</v>
       </c>
       <c r="M21">
-        <v>20.75381874257002</v>
+        <v>9.809642184458252</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.851794896808852</v>
       </c>
       <c r="O21">
-        <v>16.77991105348637</v>
+        <v>20.93470379570444</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.07280288302139</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.602488881905228</v>
+        <v>7.599872180467249</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.108929721068482</v>
+        <v>6.491352545693931</v>
       </c>
       <c r="E22">
-        <v>10.31442500729888</v>
+        <v>10.36639374960344</v>
       </c>
       <c r="F22">
-        <v>33.99121889687233</v>
+        <v>31.8559892998866</v>
       </c>
       <c r="G22">
-        <v>44.38959157476668</v>
+        <v>44.74094817099224</v>
       </c>
       <c r="H22">
-        <v>2.093870216637712</v>
+        <v>2.061314398046709</v>
       </c>
       <c r="I22">
-        <v>3.356025235033702</v>
+        <v>3.132271539783123</v>
       </c>
       <c r="J22">
-        <v>13.10334326437031</v>
+        <v>10.96206748284564</v>
       </c>
       <c r="K22">
-        <v>15.4983645012164</v>
+        <v>13.98714642961349</v>
       </c>
       <c r="L22">
-        <v>7.044107679138024</v>
+        <v>10.99665241022593</v>
       </c>
       <c r="M22">
-        <v>21.46042113441679</v>
+        <v>9.684168301686977</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.940442858960122</v>
       </c>
       <c r="O22">
-        <v>17.29366715339791</v>
+        <v>21.58445796467267</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.5781175043771</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.503093339150987</v>
+        <v>7.472095277021793</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.020820529715778</v>
+        <v>6.335106399067684</v>
       </c>
       <c r="E23">
-        <v>10.18185354074073</v>
+        <v>10.21275342739458</v>
       </c>
       <c r="F23">
-        <v>33.63618537632136</v>
+        <v>31.84175001493496</v>
       </c>
       <c r="G23">
-        <v>43.85891231458371</v>
+        <v>43.67724670477043</v>
       </c>
       <c r="H23">
-        <v>1.977730859503162</v>
+        <v>1.956723044847237</v>
       </c>
       <c r="I23">
-        <v>3.403491530364468</v>
+        <v>3.166846264083559</v>
       </c>
       <c r="J23">
-        <v>13.03352424555978</v>
+        <v>11.43888854372586</v>
       </c>
       <c r="K23">
-        <v>15.57735026371133</v>
+        <v>14.13826083165371</v>
       </c>
       <c r="L23">
-        <v>6.989735690037592</v>
+        <v>11.09736982679838</v>
       </c>
       <c r="M23">
-        <v>21.06240309696708</v>
+        <v>9.784040550549159</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.897057375478384</v>
       </c>
       <c r="O23">
-        <v>17.00473670315206</v>
+        <v>21.2347977005896</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.30125561183692</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.061416226563871</v>
+        <v>7.016255961700081</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.689734992028978</v>
+        <v>5.827402625317872</v>
       </c>
       <c r="E24">
-        <v>9.665853709373676</v>
+        <v>9.652239476200773</v>
       </c>
       <c r="F24">
-        <v>32.2130470773148</v>
+        <v>31.33670141149284</v>
       </c>
       <c r="G24">
-        <v>41.71270939442689</v>
+        <v>40.29134363613873</v>
       </c>
       <c r="H24">
-        <v>1.591601533556692</v>
+        <v>1.575831036295147</v>
       </c>
       <c r="I24">
-        <v>3.604877963442338</v>
+        <v>3.325230817496722</v>
       </c>
       <c r="J24">
-        <v>12.75039104300675</v>
+        <v>12.59008386647895</v>
       </c>
       <c r="K24">
-        <v>15.82218918594118</v>
+        <v>14.60415833438014</v>
       </c>
       <c r="L24">
-        <v>6.775457616748823</v>
+        <v>11.44626668200748</v>
       </c>
       <c r="M24">
-        <v>19.535229653854</v>
+        <v>10.06213014147042</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.717684107224196</v>
       </c>
       <c r="O24">
-        <v>15.90077107694574</v>
+        <v>19.80498141900776</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.20952681305577</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.541557647304767</v>
+        <v>6.651269647741022</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.315563973882</v>
+        <v>5.425890890507448</v>
       </c>
       <c r="E25">
-        <v>9.082047280933901</v>
+        <v>9.083742827131335</v>
       </c>
       <c r="F25">
-        <v>30.66727675920666</v>
+        <v>30.00960040772149</v>
       </c>
       <c r="G25">
-        <v>39.37444277492775</v>
+        <v>38.11971059392355</v>
       </c>
       <c r="H25">
-        <v>2.1034911387412</v>
+        <v>2.067662840748622</v>
       </c>
       <c r="I25">
-        <v>3.831951808929213</v>
+        <v>3.512373758670924</v>
       </c>
       <c r="J25">
-        <v>12.4617908925907</v>
+        <v>12.4154864481265</v>
       </c>
       <c r="K25">
-        <v>16.09255593017548</v>
+        <v>14.95292420211198</v>
       </c>
       <c r="L25">
-        <v>6.535446760612057</v>
+        <v>11.75026977854995</v>
       </c>
       <c r="M25">
-        <v>17.76412879828427</v>
+        <v>10.25756906462959</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.497465611821133</v>
       </c>
       <c r="O25">
-        <v>14.63479745100024</v>
+        <v>17.96377141660161</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>14.89620230798026</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
